--- a/data_out2020/Scaled group scores - overtime (weighting).xlsx
+++ b/data_out2020/Scaled group scores - overtime (weighting).xlsx
@@ -703,31 +703,31 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>70.2977661420501</v>
+        <v>70.2977661421982</v>
       </c>
       <c r="D2" t="n">
-        <v>70.4050724501734</v>
+        <v>70.4050724503122</v>
       </c>
       <c r="E2" t="n">
-        <v>69.1414660109367</v>
+        <v>69.1414660110724</v>
       </c>
       <c r="F2" t="n">
-        <v>70.4726839541942</v>
+        <v>70.4726839543264</v>
       </c>
       <c r="G2" t="n">
-        <v>71.4938854566902</v>
+        <v>71.4938854568184</v>
       </c>
       <c r="H2" t="n">
-        <v>72.6797938833695</v>
+        <v>72.6797938834998</v>
       </c>
       <c r="I2" t="n">
-        <v>72.0290423682651</v>
+        <v>72.0290423684001</v>
       </c>
       <c r="J2" t="n">
-        <v>72.0321705531787</v>
+        <v>72.0321705533134</v>
       </c>
       <c r="K2" t="n">
-        <v>2.46722549849445</v>
+        <v>2.46722549847014</v>
       </c>
     </row>
     <row r="3">
@@ -738,31 +738,31 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>43.3836214830362</v>
+        <v>43.3836214835416</v>
       </c>
       <c r="D3" t="n">
-        <v>42.213098572277</v>
+        <v>42.2130985726969</v>
       </c>
       <c r="E3" t="n">
-        <v>41.5562670973049</v>
+        <v>41.5562670977325</v>
       </c>
       <c r="F3" t="n">
-        <v>41.4123838460704</v>
+        <v>41.4123838464999</v>
       </c>
       <c r="G3" t="n">
-        <v>40.3309965474562</v>
+        <v>40.3309965478842</v>
       </c>
       <c r="H3" t="n">
-        <v>39.9321375223249</v>
+        <v>39.9321375227528</v>
       </c>
       <c r="I3" t="n">
-        <v>40.1894079336674</v>
+        <v>40.1894079340952</v>
       </c>
       <c r="J3" t="n">
-        <v>40.3180201445933</v>
+        <v>40.3180201450214</v>
       </c>
       <c r="K3" t="n">
-        <v>-7.06626425744938</v>
+        <v>-7.06626425754534</v>
       </c>
     </row>
     <row r="4">
@@ -773,31 +773,31 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>45.0890430261284</v>
+        <v>45.0890430264971</v>
       </c>
       <c r="D4" t="n">
-        <v>45.2019501729666</v>
+        <v>45.201950173419</v>
       </c>
       <c r="E4" t="n">
-        <v>44.5366205932752</v>
+        <v>44.536620593653</v>
       </c>
       <c r="F4" t="n">
-        <v>44.360408436809</v>
+        <v>44.3604084371883</v>
       </c>
       <c r="G4" t="n">
-        <v>44.8836900695688</v>
+        <v>44.883690069947</v>
       </c>
       <c r="H4" t="n">
-        <v>44.4651167272937</v>
+        <v>44.4651167276731</v>
       </c>
       <c r="I4" t="n">
-        <v>44.4704546476529</v>
+        <v>44.4704546480341</v>
       </c>
       <c r="J4" t="n">
-        <v>44.5708151016403</v>
+        <v>44.5708151020234</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.14934336527773</v>
+        <v>-1.14934336523663</v>
       </c>
     </row>
     <row r="5">
@@ -808,31 +808,31 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>55.2537744004711</v>
+        <v>55.253774400883</v>
       </c>
       <c r="D5" t="n">
-        <v>54.4565091268555</v>
+        <v>54.4565091270625</v>
       </c>
       <c r="E5" t="n">
-        <v>54.5912907137369</v>
+        <v>54.5912907139538</v>
       </c>
       <c r="F5" t="n">
-        <v>54.1065363851406</v>
+        <v>54.1065363853539</v>
       </c>
       <c r="G5" t="n">
-        <v>53.2290665101096</v>
+        <v>53.2290665103185</v>
       </c>
       <c r="H5" t="n">
-        <v>54.2638786185349</v>
+        <v>54.2638786187458</v>
       </c>
       <c r="I5" t="n">
-        <v>55.0083882423242</v>
+        <v>55.0083882425376</v>
       </c>
       <c r="J5" t="n">
-        <v>55.0240914160394</v>
+        <v>55.0240914162528</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.415687411265275</v>
+        <v>-0.415687411621435</v>
       </c>
     </row>
     <row r="6">
@@ -843,31 +843,31 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>52.77305393217</v>
+        <v>52.7730539323802</v>
       </c>
       <c r="D6" t="n">
-        <v>52.6807694955957</v>
+        <v>52.6807694960052</v>
       </c>
       <c r="E6" t="n">
-        <v>51.8779010810198</v>
+        <v>51.8779010813189</v>
       </c>
       <c r="F6" t="n">
-        <v>52.6209270036109</v>
+        <v>52.6209270039078</v>
       </c>
       <c r="G6" t="n">
-        <v>52.9738395610889</v>
+        <v>52.9738395613868</v>
       </c>
       <c r="H6" t="n">
-        <v>53.5068059173727</v>
+        <v>53.5068059176717</v>
       </c>
       <c r="I6" t="n">
-        <v>53.4676099831041</v>
+        <v>53.4676099834055</v>
       </c>
       <c r="J6" t="n">
-        <v>53.5469705785558</v>
+        <v>53.5469705788574</v>
       </c>
       <c r="K6" t="n">
-        <v>1.46649964085941</v>
+        <v>1.46649964102665</v>
       </c>
     </row>
     <row r="7">
@@ -878,31 +878,31 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>50.2849169604336</v>
+        <v>50.2849169607823</v>
       </c>
       <c r="D7" t="n">
-        <v>50.0537148096138</v>
+        <v>50.053714809972</v>
       </c>
       <c r="E7" t="n">
-        <v>49.6482091662555</v>
+        <v>49.6482091665602</v>
       </c>
       <c r="F7" t="n">
-        <v>49.5853572719297</v>
+        <v>49.5853572722332</v>
       </c>
       <c r="G7" t="n">
-        <v>49.599324287295</v>
+        <v>49.5993242875966</v>
       </c>
       <c r="H7" t="n">
-        <v>49.9125163870491</v>
+        <v>49.9125163873519</v>
       </c>
       <c r="I7" t="n">
-        <v>50.1764302857621</v>
+        <v>50.176430286067</v>
       </c>
       <c r="J7" t="n">
-        <v>50.2551164024713</v>
+        <v>50.255116402777</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.059263412895294</v>
+        <v>-0.0592634129804148</v>
       </c>
     </row>
     <row r="8">
@@ -913,31 +913,31 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>63.3477068995645</v>
+        <v>63.3477068998408</v>
       </c>
       <c r="D8" t="n">
-        <v>63.1866982997971</v>
+        <v>63.1866983000674</v>
       </c>
       <c r="E8" t="n">
-        <v>61.3782208634754</v>
+        <v>61.3782208637421</v>
       </c>
       <c r="F8" t="n">
-        <v>60.918607650601</v>
+        <v>60.9186076508698</v>
       </c>
       <c r="G8" t="n">
-        <v>60.671091028799</v>
+        <v>60.6710910290645</v>
       </c>
       <c r="H8" t="n">
-        <v>60.2132454088077</v>
+        <v>60.213245409069</v>
       </c>
       <c r="I8" t="n">
-        <v>59.7108609089555</v>
+        <v>59.7108609092163</v>
       </c>
       <c r="J8" t="n">
-        <v>59.7520456123145</v>
+        <v>59.7520456125747</v>
       </c>
       <c r="K8" t="n">
-        <v>-5.67607173682034</v>
+        <v>-5.67607173682098</v>
       </c>
     </row>
     <row r="9">
@@ -948,31 +948,31 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>76.4945886159656</v>
+        <v>76.4945886163268</v>
       </c>
       <c r="D9" t="n">
-        <v>77.606802484141</v>
+        <v>77.6068024845043</v>
       </c>
       <c r="E9" t="n">
-        <v>78.1381047093252</v>
+        <v>78.1381047096882</v>
       </c>
       <c r="F9" t="n">
-        <v>79.6205278271177</v>
+        <v>79.6205278274801</v>
       </c>
       <c r="G9" t="n">
-        <v>79.9545187289006</v>
+        <v>79.9545187292577</v>
       </c>
       <c r="H9" t="n">
-        <v>80.389473450056</v>
+        <v>80.389473450414</v>
       </c>
       <c r="I9" t="n">
-        <v>80.0264190738768</v>
+        <v>80.0264190742333</v>
       </c>
       <c r="J9" t="n">
-        <v>80.0265908175869</v>
+        <v>80.0265908179418</v>
       </c>
       <c r="K9" t="n">
-        <v>4.61732295777608</v>
+        <v>4.61732295774606</v>
       </c>
     </row>
     <row r="10">
@@ -983,31 +983,31 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>36.1966204806832</v>
+        <v>36.1966204813652</v>
       </c>
       <c r="D10" t="n">
-        <v>34.4070775822179</v>
+        <v>34.4070775829571</v>
       </c>
       <c r="E10" t="n">
-        <v>33.8786591265944</v>
+        <v>33.8786591273266</v>
       </c>
       <c r="F10" t="n">
-        <v>33.8380598635151</v>
+        <v>33.8380598642523</v>
       </c>
       <c r="G10" t="n">
-        <v>33.5549764718547</v>
+        <v>33.5549764725911</v>
       </c>
       <c r="H10" t="n">
-        <v>33.5366429073863</v>
+        <v>33.5366429081278</v>
       </c>
       <c r="I10" t="n">
-        <v>33.7478770100598</v>
+        <v>33.7478770108058</v>
       </c>
       <c r="J10" t="n">
-        <v>33.7419868502024</v>
+        <v>33.7419868509484</v>
       </c>
       <c r="K10" t="n">
-        <v>-6.78138897467182</v>
+        <v>-6.78138897436694</v>
       </c>
     </row>
     <row r="11">
@@ -1018,31 +1018,31 @@
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>59.1842227508937</v>
+        <v>59.184222751247</v>
       </c>
       <c r="D11" t="n">
-        <v>59.088793666237</v>
+        <v>59.0887936664995</v>
       </c>
       <c r="E11" t="n">
-        <v>58.5318871840606</v>
+        <v>58.5318871843249</v>
       </c>
       <c r="F11" t="n">
-        <v>58.403218558799</v>
+        <v>58.4032185590628</v>
       </c>
       <c r="G11" t="n">
-        <v>58.1316287665873</v>
+        <v>58.1316287668495</v>
       </c>
       <c r="H11" t="n">
-        <v>58.1893911185907</v>
+        <v>58.1893911188524</v>
       </c>
       <c r="I11" t="n">
-        <v>58.375834243546</v>
+        <v>58.3758342438097</v>
       </c>
       <c r="J11" t="n">
-        <v>58.3891161215114</v>
+        <v>58.3891161217753</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.34344356050581</v>
+        <v>-1.34344356064886</v>
       </c>
     </row>
     <row r="12">
@@ -1053,31 +1053,31 @@
         <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>4.2346304807646</v>
+        <v>4.23463048166925</v>
       </c>
       <c r="D12" t="n">
-        <v>4.85029614240903</v>
+        <v>4.85029614269751</v>
       </c>
       <c r="E12" t="n">
-        <v>4.83813565844796</v>
+        <v>4.83813565925791</v>
       </c>
       <c r="F12" t="n">
-        <v>4.20088204384108</v>
+        <v>4.20088204464921</v>
       </c>
       <c r="G12" t="n">
-        <v>4.93431990694041</v>
+        <v>4.93431990774881</v>
       </c>
       <c r="H12" t="n">
-        <v>4.85553269775675</v>
+        <v>4.85553269856666</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8873550980617</v>
+        <v>3.88735509888607</v>
       </c>
       <c r="J12" t="n">
-        <v>3.88430214529126</v>
+        <v>3.88430214611703</v>
       </c>
       <c r="K12" t="n">
-        <v>-8.27293755770827</v>
+        <v>-8.27293755780385</v>
       </c>
     </row>
     <row r="13">
@@ -1088,31 +1088,31 @@
         <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>63.0487309120184</v>
+        <v>63.0487309122115</v>
       </c>
       <c r="D13" t="n">
-        <v>62.6852571360192</v>
+        <v>62.6852571361996</v>
       </c>
       <c r="E13" t="n">
-        <v>63.945562163572</v>
+        <v>63.9455621637508</v>
       </c>
       <c r="F13" t="n">
-        <v>64.5138069725691</v>
+        <v>64.513806972744</v>
       </c>
       <c r="G13" t="n">
-        <v>64.9242513914631</v>
+        <v>64.9242513916326</v>
       </c>
       <c r="H13" t="n">
-        <v>65.5020041039539</v>
+        <v>65.5020041041233</v>
       </c>
       <c r="I13" t="n">
-        <v>65.8757202917724</v>
+        <v>65.8757202919431</v>
       </c>
       <c r="J13" t="n">
-        <v>65.8414366452961</v>
+        <v>65.8414366454662</v>
       </c>
       <c r="K13" t="n">
-        <v>4.42944004245678</v>
+        <v>4.42944004240657</v>
       </c>
     </row>
     <row r="14">
@@ -1123,31 +1123,31 @@
         <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>65.7736891618466</v>
+        <v>65.7736891625822</v>
       </c>
       <c r="D14" t="n">
-        <v>64.6333883015436</v>
+        <v>64.6333883022788</v>
       </c>
       <c r="E14" t="n">
-        <v>62.7753708840169</v>
+        <v>62.7753708847494</v>
       </c>
       <c r="F14" t="n">
-        <v>60.7032735996346</v>
+        <v>60.7032736003779</v>
       </c>
       <c r="G14" t="n">
-        <v>61.3154322651273</v>
+        <v>61.3154322658665</v>
       </c>
       <c r="H14" t="n">
-        <v>60.2207863110872</v>
+        <v>60.2207863118164</v>
       </c>
       <c r="I14" t="n">
-        <v>58.3027541607586</v>
+        <v>58.3027541614829</v>
       </c>
       <c r="J14" t="n">
-        <v>58.3136883844132</v>
+        <v>58.3136883851377</v>
       </c>
       <c r="K14" t="n">
-        <v>-11.3419223894784</v>
+        <v>-11.3419223893684</v>
       </c>
     </row>
     <row r="15">
@@ -1158,31 +1158,31 @@
         <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>48.5565397147109</v>
+        <v>48.5565397149861</v>
       </c>
       <c r="D15" t="n">
-        <v>48.148294829186</v>
+        <v>48.1482948294382</v>
       </c>
       <c r="E15" t="n">
-        <v>47.9950721334092</v>
+        <v>47.9950721336095</v>
       </c>
       <c r="F15" t="n">
-        <v>47.9959008032817</v>
+        <v>47.9959008034806</v>
       </c>
       <c r="G15" t="n">
-        <v>47.9277784747544</v>
+        <v>47.9277784749528</v>
       </c>
       <c r="H15" t="n">
-        <v>47.7201406438128</v>
+        <v>47.7201406440113</v>
       </c>
       <c r="I15" t="n">
-        <v>47.9715982823256</v>
+        <v>47.971598282527</v>
       </c>
       <c r="J15" t="n">
-        <v>48.02391590274</v>
+        <v>48.0239159029412</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.09691467946504</v>
+        <v>-1.09691467961113</v>
       </c>
     </row>
     <row r="16">
@@ -1193,31 +1193,31 @@
         <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>47.9127583471158</v>
+        <v>47.9127583478825</v>
       </c>
       <c r="D16" t="n">
-        <v>46.6761210414378</v>
+        <v>46.6761210421551</v>
       </c>
       <c r="E16" t="n">
-        <v>46.4008971576799</v>
+        <v>46.4008971583849</v>
       </c>
       <c r="F16" t="n">
-        <v>46.451212742685</v>
+        <v>46.4512127433931</v>
       </c>
       <c r="G16" t="n">
-        <v>46.1230960908975</v>
+        <v>46.1230960916028</v>
       </c>
       <c r="H16" t="n">
-        <v>46.3396078627093</v>
+        <v>46.3396078634157</v>
       </c>
       <c r="I16" t="n">
-        <v>46.5293600497661</v>
+        <v>46.5293600504741</v>
       </c>
       <c r="J16" t="n">
-        <v>46.6046814915649</v>
+        <v>46.6046814922707</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.73012220685389</v>
+        <v>-2.73012220693725</v>
       </c>
     </row>
     <row r="17">
@@ -1228,31 +1228,31 @@
         <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>57.7118134716899</v>
+        <v>57.7118134716443</v>
       </c>
       <c r="D17" t="n">
-        <v>55.4248043004512</v>
+        <v>55.4248043005503</v>
       </c>
       <c r="E17" t="n">
-        <v>55.847137896644</v>
+        <v>55.8471378967544</v>
       </c>
       <c r="F17" t="n">
-        <v>55.5057877403438</v>
+        <v>55.5057877404491</v>
       </c>
       <c r="G17" t="n">
-        <v>55.7361253263306</v>
+        <v>55.7361253264313</v>
       </c>
       <c r="H17" t="n">
-        <v>56.703987093776</v>
+        <v>56.7039870938784</v>
       </c>
       <c r="I17" t="n">
-        <v>56.8538121876315</v>
+        <v>56.8538121877387</v>
       </c>
       <c r="J17" t="n">
-        <v>56.8379763628534</v>
+        <v>56.8379763629614</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.514139057968</v>
+        <v>-1.51413905770297</v>
       </c>
     </row>
     <row r="18">
@@ -1263,31 +1263,31 @@
         <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>51.5599064447419</v>
+        <v>51.5599064452092</v>
       </c>
       <c r="D18" t="n">
-        <v>54.874549504365</v>
+        <v>54.8745495048322</v>
       </c>
       <c r="E18" t="n">
-        <v>55.8203780524924</v>
+        <v>55.820378052957</v>
       </c>
       <c r="F18" t="n">
-        <v>57.5469753833954</v>
+        <v>57.5469753838551</v>
       </c>
       <c r="G18" t="n">
-        <v>56.9148915432041</v>
+        <v>56.9148915436587</v>
       </c>
       <c r="H18" t="n">
-        <v>55.5837553364596</v>
+        <v>55.5837553369121</v>
       </c>
       <c r="I18" t="n">
-        <v>55.3682009586007</v>
+        <v>55.3682009590522</v>
       </c>
       <c r="J18" t="n">
-        <v>55.4207408564334</v>
+        <v>55.4207408568864</v>
       </c>
       <c r="K18" t="n">
-        <v>7.48805550264009</v>
+        <v>7.48805550254446</v>
       </c>
     </row>
     <row r="19">
@@ -1298,31 +1298,31 @@
         <v>29</v>
       </c>
       <c r="C19" t="n">
-        <v>46.2479454372447</v>
+        <v>46.2479454380745</v>
       </c>
       <c r="D19" t="n">
-        <v>44.904219907405</v>
+        <v>44.9042199081817</v>
       </c>
       <c r="E19" t="n">
-        <v>44.4465814715453</v>
+        <v>44.4465814723089</v>
       </c>
       <c r="F19" t="n">
-        <v>44.4251922624813</v>
+        <v>44.4251922632492</v>
       </c>
       <c r="G19" t="n">
-        <v>43.9983764100026</v>
+        <v>43.9983764107684</v>
       </c>
       <c r="H19" t="n">
-        <v>44.1566840621568</v>
+        <v>44.1566840629243</v>
       </c>
       <c r="I19" t="n">
-        <v>44.3061696273762</v>
+        <v>44.3061696281459</v>
       </c>
       <c r="J19" t="n">
-        <v>44.3725462185143</v>
+        <v>44.3725462192822</v>
       </c>
       <c r="K19" t="n">
-        <v>-4.05509736919063</v>
+        <v>-4.05509736925148</v>
       </c>
     </row>
     <row r="20">
@@ -1333,31 +1333,31 @@
         <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>30.5465276323531</v>
+        <v>30.5465276332869</v>
       </c>
       <c r="D20" t="n">
-        <v>32.0436535225932</v>
+        <v>32.0436535234973</v>
       </c>
       <c r="E20" t="n">
-        <v>31.7388584100477</v>
+        <v>31.7388584109902</v>
       </c>
       <c r="F20" t="n">
-        <v>30.24924303936</v>
+        <v>30.2492430403013</v>
       </c>
       <c r="G20" t="n">
-        <v>29.4297825059432</v>
+        <v>29.4297825068806</v>
       </c>
       <c r="H20" t="n">
-        <v>29.5355287585573</v>
+        <v>29.5355287594937</v>
       </c>
       <c r="I20" t="n">
-        <v>29.7753369742099</v>
+        <v>29.7753369751463</v>
       </c>
       <c r="J20" t="n">
-        <v>29.8084786182566</v>
+        <v>29.8084786191938</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.41614701015929</v>
+        <v>-2.41614701007392</v>
       </c>
     </row>
     <row r="21">
@@ -1368,31 +1368,31 @@
         <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>45.5080788244323</v>
+        <v>45.5080788250457</v>
       </c>
       <c r="D21" t="n">
-        <v>44.0809236735313</v>
+        <v>44.0809236741874</v>
       </c>
       <c r="E21" t="n">
-        <v>43.1636063192108</v>
+        <v>43.163606319829</v>
       </c>
       <c r="F21" t="n">
-        <v>43.1605345721839</v>
+        <v>43.1605345728042</v>
       </c>
       <c r="G21" t="n">
-        <v>43.0211073723271</v>
+        <v>43.0211073729451</v>
       </c>
       <c r="H21" t="n">
-        <v>42.9051634173228</v>
+        <v>42.9051634179424</v>
       </c>
       <c r="I21" t="n">
-        <v>43.2121058628466</v>
+        <v>43.2121058634693</v>
       </c>
       <c r="J21" t="n">
-        <v>43.2785142352629</v>
+        <v>43.2785142358841</v>
       </c>
       <c r="K21" t="n">
-        <v>-4.89927205622321</v>
+        <v>-4.89927205613974</v>
       </c>
     </row>
     <row r="22">
@@ -1403,31 +1403,31 @@
         <v>32</v>
       </c>
       <c r="C22" t="n">
-        <v>35.4591808252809</v>
+        <v>35.4591808258805</v>
       </c>
       <c r="D22" t="n">
-        <v>33.7106291682535</v>
+        <v>33.7106291688629</v>
       </c>
       <c r="E22" t="n">
-        <v>33.1662817945935</v>
+        <v>33.1662817951908</v>
       </c>
       <c r="F22" t="n">
-        <v>33.051668970265</v>
+        <v>33.0516689708664</v>
       </c>
       <c r="G22" t="n">
-        <v>32.3252781432446</v>
+        <v>32.3252781438455</v>
       </c>
       <c r="H22" t="n">
-        <v>31.9477974550561</v>
+        <v>31.9477974556603</v>
       </c>
       <c r="I22" t="n">
-        <v>32.1495049016754</v>
+        <v>32.1495049022826</v>
       </c>
       <c r="J22" t="n">
-        <v>32.1604578366154</v>
+        <v>32.1604578372231</v>
       </c>
       <c r="K22" t="n">
-        <v>-9.30287421167273</v>
+        <v>-9.30287421149266</v>
       </c>
     </row>
     <row r="23">
@@ -1438,31 +1438,31 @@
         <v>33</v>
       </c>
       <c r="C23" t="n">
-        <v>53.0632363264782</v>
+        <v>53.0632363272274</v>
       </c>
       <c r="D23" t="n">
-        <v>52.2584107953779</v>
+        <v>52.2584107958395</v>
       </c>
       <c r="E23" t="n">
-        <v>50.9334459638152</v>
+        <v>50.9334459641302</v>
       </c>
       <c r="F23" t="n">
-        <v>51.3313659164695</v>
+        <v>51.3313659167825</v>
       </c>
       <c r="G23" t="n">
-        <v>50.7130690349297</v>
+        <v>50.7130690352404</v>
       </c>
       <c r="H23" t="n">
-        <v>49.4982307258322</v>
+        <v>49.4982307261389</v>
       </c>
       <c r="I23" t="n">
-        <v>49.6692058966148</v>
+        <v>49.6692058969207</v>
       </c>
       <c r="J23" t="n">
-        <v>49.6944847922739</v>
+        <v>49.6944847925774</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.34856026021026</v>
+        <v>-6.34856026096068</v>
       </c>
     </row>
     <row r="24">
@@ -1473,31 +1473,31 @@
         <v>34</v>
       </c>
       <c r="C24" t="n">
-        <v>41.6049219842208</v>
+        <v>41.6049219847567</v>
       </c>
       <c r="D24" t="n">
-        <v>40.3435242602116</v>
+        <v>40.3435242607303</v>
       </c>
       <c r="E24" t="n">
-        <v>39.8550637170778</v>
+        <v>39.8550637175873</v>
       </c>
       <c r="F24" t="n">
-        <v>39.7960825013403</v>
+        <v>39.7960825018518</v>
       </c>
       <c r="G24" t="n">
-        <v>39.2511070430966</v>
+        <v>39.2511070436066</v>
       </c>
       <c r="H24" t="n">
-        <v>39.0521857792647</v>
+        <v>39.0521857797761</v>
       </c>
       <c r="I24" t="n">
-        <v>39.3127334607195</v>
+        <v>39.3127334612328</v>
       </c>
       <c r="J24" t="n">
-        <v>39.3897789956774</v>
+        <v>39.3897789961903</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.32423300633416</v>
+        <v>-5.3242330063206</v>
       </c>
     </row>
     <row r="25">
@@ -1508,31 +1508,31 @@
         <v>35</v>
       </c>
       <c r="C25" t="n">
-        <v>40.7338180700134</v>
+        <v>40.7338180708906</v>
       </c>
       <c r="D25" t="n">
-        <v>39.6867917865786</v>
+        <v>39.6867917872502</v>
       </c>
       <c r="E25" t="n">
-        <v>38.5445877651936</v>
+        <v>38.5445877656714</v>
       </c>
       <c r="F25" t="n">
-        <v>38.6981151311587</v>
+        <v>38.6981151316378</v>
       </c>
       <c r="G25" t="n">
-        <v>39.1923702578527</v>
+        <v>39.1923702583292</v>
       </c>
       <c r="H25" t="n">
-        <v>39.5474772876496</v>
+        <v>39.547477288137</v>
       </c>
       <c r="I25" t="n">
-        <v>39.2794928849408</v>
+        <v>39.2794928854284</v>
       </c>
       <c r="J25" t="n">
-        <v>39.3795829642017</v>
+        <v>39.379582964689</v>
       </c>
       <c r="K25" t="n">
-        <v>-3.32459653913131</v>
+        <v>-3.32459654001688</v>
       </c>
     </row>
     <row r="26">
@@ -1543,31 +1543,31 @@
         <v>36</v>
       </c>
       <c r="C26" t="n">
-        <v>30.6714805039516</v>
+        <v>30.6714805042393</v>
       </c>
       <c r="D26" t="n">
-        <v>30.680270884297</v>
+        <v>30.6802708842408</v>
       </c>
       <c r="E26" t="n">
-        <v>29.6670466893715</v>
+        <v>29.6670466903241</v>
       </c>
       <c r="F26" t="n">
-        <v>28.7551584143242</v>
+        <v>28.755158415278</v>
       </c>
       <c r="G26" t="n">
-        <v>29.2729494365971</v>
+        <v>29.2729494375495</v>
       </c>
       <c r="H26" t="n">
-        <v>29.3854033706868</v>
+        <v>29.3854033716373</v>
       </c>
       <c r="I26" t="n">
-        <v>29.2051820795598</v>
+        <v>29.2051820805198</v>
       </c>
       <c r="J26" t="n">
-        <v>29.2267417026058</v>
+        <v>29.2267417035646</v>
       </c>
       <c r="K26" t="n">
-        <v>-4.71036538702375</v>
+        <v>-4.71036538479152</v>
       </c>
     </row>
     <row r="27">
@@ -1578,31 +1578,31 @@
         <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>58.3238693780636</v>
+        <v>58.3238693785645</v>
       </c>
       <c r="D27" t="n">
-        <v>57.6650027130881</v>
+        <v>57.6650027135872</v>
       </c>
       <c r="E27" t="n">
-        <v>56.9218623548174</v>
+        <v>56.9218623553142</v>
       </c>
       <c r="F27" t="n">
-        <v>56.0544648013156</v>
+        <v>56.0544648018147</v>
       </c>
       <c r="G27" t="n">
-        <v>57.1134339504553</v>
+        <v>57.1134339509539</v>
       </c>
       <c r="H27" t="n">
-        <v>56.1046243638219</v>
+        <v>56.1046243643159</v>
       </c>
       <c r="I27" t="n">
-        <v>56.3117195456249</v>
+        <v>56.3117195461226</v>
       </c>
       <c r="J27" t="n">
-        <v>56.2968957584087</v>
+        <v>56.2968957589067</v>
       </c>
       <c r="K27" t="n">
-        <v>-3.47537576170706</v>
+        <v>-3.47537576168224</v>
       </c>
     </row>
     <row r="28">
@@ -1613,31 +1613,31 @@
         <v>38</v>
       </c>
       <c r="C28" t="n">
-        <v>19.359504944261</v>
+        <v>19.3595049448656</v>
       </c>
       <c r="D28" t="n">
-        <v>20.1299896780444</v>
+        <v>20.1299896786218</v>
       </c>
       <c r="E28" t="n">
-        <v>22.7868231640789</v>
+        <v>22.7868231644305</v>
       </c>
       <c r="F28" t="n">
-        <v>24.4191387313014</v>
+        <v>24.4191387316697</v>
       </c>
       <c r="G28" t="n">
-        <v>25.2030223119748</v>
+        <v>25.2030223123518</v>
       </c>
       <c r="H28" t="n">
-        <v>25.8173990781693</v>
+        <v>25.8173990785633</v>
       </c>
       <c r="I28" t="n">
-        <v>25.2265323968424</v>
+        <v>25.2265323972374</v>
       </c>
       <c r="J28" t="n">
-        <v>25.2893933064937</v>
+        <v>25.2893933068895</v>
       </c>
       <c r="K28" t="n">
-        <v>30.6303718990015</v>
+        <v>30.6303718969664</v>
       </c>
     </row>
     <row r="29">
@@ -1648,31 +1648,31 @@
         <v>39</v>
       </c>
       <c r="C29" t="n">
-        <v>35.1690285075814</v>
+        <v>35.1690285079575</v>
       </c>
       <c r="D29" t="n">
-        <v>33.0915273438154</v>
+        <v>33.0915273441868</v>
       </c>
       <c r="E29" t="n">
-        <v>32.4114224870329</v>
+        <v>32.4114224873537</v>
       </c>
       <c r="F29" t="n">
-        <v>32.1742164169888</v>
+        <v>32.1742164173097</v>
       </c>
       <c r="G29" t="n">
-        <v>30.8325438951172</v>
+        <v>30.8325438954365</v>
       </c>
       <c r="H29" t="n">
-        <v>30.1819826537547</v>
+        <v>30.1819826540753</v>
       </c>
       <c r="I29" t="n">
-        <v>30.3699198646517</v>
+        <v>30.3699198649721</v>
       </c>
       <c r="J29" t="n">
-        <v>30.3689844934046</v>
+        <v>30.3689844937248</v>
       </c>
       <c r="K29" t="n">
-        <v>-13.6484976067565</v>
+        <v>-13.6484976067698</v>
       </c>
     </row>
     <row r="30">
@@ -1683,31 +1683,31 @@
         <v>40</v>
       </c>
       <c r="C30" t="n">
-        <v>59.5539811064662</v>
+        <v>59.55398110687</v>
       </c>
       <c r="D30" t="n">
-        <v>59.3702903692121</v>
+        <v>59.3702903696463</v>
       </c>
       <c r="E30" t="n">
-        <v>58.426717598644</v>
+        <v>58.4267175990805</v>
       </c>
       <c r="F30" t="n">
-        <v>58.6579368424006</v>
+        <v>58.6579368428375</v>
       </c>
       <c r="G30" t="n">
-        <v>58.7953261516886</v>
+        <v>58.7953261521237</v>
       </c>
       <c r="H30" t="n">
-        <v>58.6848126190119</v>
+        <v>58.6848126194466</v>
       </c>
       <c r="I30" t="n">
-        <v>58.3909935269398</v>
+        <v>58.3909935273748</v>
       </c>
       <c r="J30" t="n">
-        <v>58.4113220000851</v>
+        <v>58.41132200052</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.91869474576079</v>
+        <v>-1.9186947456955</v>
       </c>
     </row>
     <row r="31">
@@ -1718,31 +1718,31 @@
         <v>41</v>
       </c>
       <c r="C31" t="n">
-        <v>42.7796657310989</v>
+        <v>42.7796657317956</v>
       </c>
       <c r="D31" t="n">
-        <v>41.020178241161</v>
+        <v>41.0201782418892</v>
       </c>
       <c r="E31" t="n">
-        <v>40.4258307745702</v>
+        <v>40.4258307752485</v>
       </c>
       <c r="F31" t="n">
-        <v>40.2714866451204</v>
+        <v>40.271486645801</v>
       </c>
       <c r="G31" t="n">
-        <v>39.6915170064776</v>
+        <v>39.6915170071562</v>
       </c>
       <c r="H31" t="n">
-        <v>39.4863604462034</v>
+        <v>39.4863604468832</v>
       </c>
       <c r="I31" t="n">
-        <v>39.8182575703866</v>
+        <v>39.8182575710696</v>
       </c>
       <c r="J31" t="n">
-        <v>39.8603836009675</v>
+        <v>39.8603836016489</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.82399471861508</v>
+        <v>-6.82399471853977</v>
       </c>
     </row>
     <row r="32">
@@ -1753,31 +1753,31 @@
         <v>42</v>
       </c>
       <c r="C32" t="n">
-        <v>48.9970623140774</v>
+        <v>48.9970623149901</v>
       </c>
       <c r="D32" t="n">
-        <v>48.9292795214661</v>
+        <v>48.9292795223769</v>
       </c>
       <c r="E32" t="n">
-        <v>45.8339914805227</v>
+        <v>45.833991481433</v>
       </c>
       <c r="F32" t="n">
-        <v>46.7467158178942</v>
+        <v>46.7467158188039</v>
       </c>
       <c r="G32" t="n">
-        <v>47.1196670155091</v>
+        <v>47.1196670164166</v>
       </c>
       <c r="H32" t="n">
-        <v>49.8362755440532</v>
+        <v>49.8362755449522</v>
       </c>
       <c r="I32" t="n">
-        <v>49.0276119182207</v>
+        <v>49.0276119191179</v>
       </c>
       <c r="J32" t="n">
-        <v>49.0585269370089</v>
+        <v>49.0585269379061</v>
       </c>
       <c r="K32" t="n">
-        <v>0.125445526789969</v>
+        <v>0.125445526755996</v>
       </c>
     </row>
     <row r="33">
@@ -1788,31 +1788,31 @@
         <v>43</v>
       </c>
       <c r="C33" t="n">
-        <v>72.9593547503879</v>
+        <v>72.9593547505338</v>
       </c>
       <c r="D33" t="n">
-        <v>73.0089683511087</v>
+        <v>73.0089683513179</v>
       </c>
       <c r="E33" t="n">
-        <v>70.7885409392503</v>
+        <v>70.7885409395117</v>
       </c>
       <c r="F33" t="n">
-        <v>71.5319793597945</v>
+        <v>71.5319793600494</v>
       </c>
       <c r="G33" t="n">
-        <v>72.0152809113687</v>
+        <v>72.0152809116183</v>
       </c>
       <c r="H33" t="n">
-        <v>73.1416589991139</v>
+        <v>73.1416589993659</v>
       </c>
       <c r="I33" t="n">
-        <v>71.9781521852588</v>
+        <v>71.9781521855064</v>
       </c>
       <c r="J33" t="n">
-        <v>71.9849180454347</v>
+        <v>71.9849180456809</v>
       </c>
       <c r="K33" t="n">
-        <v>-1.33558843589968</v>
+        <v>-1.33558843575954</v>
       </c>
     </row>
     <row r="34">
@@ -1823,31 +1823,31 @@
         <v>44</v>
       </c>
       <c r="C34" t="n">
-        <v>58.3345679503798</v>
+        <v>58.3345679510813</v>
       </c>
       <c r="D34" t="n">
-        <v>58.4646438746895</v>
+        <v>58.4646438747599</v>
       </c>
       <c r="E34" t="n">
-        <v>59.5689668583433</v>
+        <v>59.5689668584165</v>
       </c>
       <c r="F34" t="n">
-        <v>60.7083089784824</v>
+        <v>60.7083089785529</v>
       </c>
       <c r="G34" t="n">
-        <v>57.9367879525965</v>
+        <v>57.9367879526669</v>
       </c>
       <c r="H34" t="n">
-        <v>60.0598214606778</v>
+        <v>60.0598214607515</v>
       </c>
       <c r="I34" t="n">
-        <v>60.6509811670814</v>
+        <v>60.6509811671546</v>
       </c>
       <c r="J34" t="n">
-        <v>60.7208371334111</v>
+        <v>60.7208371334848</v>
       </c>
       <c r="K34" t="n">
-        <v>4.09066059263716</v>
+        <v>4.09066059151184</v>
       </c>
     </row>
     <row r="35">
@@ -1858,31 +1858,31 @@
         <v>45</v>
       </c>
       <c r="C35" t="n">
-        <v>36.0351878017403</v>
+        <v>36.0351878026119</v>
       </c>
       <c r="D35" t="n">
-        <v>40.2906268705382</v>
+        <v>40.2906268714238</v>
       </c>
       <c r="E35" t="n">
-        <v>38.9954691871729</v>
+        <v>38.9954691880588</v>
       </c>
       <c r="F35" t="n">
-        <v>37.9033790757265</v>
+        <v>37.9033790766171</v>
       </c>
       <c r="G35" t="n">
-        <v>36.4948201367617</v>
+        <v>36.4948201376523</v>
       </c>
       <c r="H35" t="n">
-        <v>36.1441537456853</v>
+        <v>36.1441537465688</v>
       </c>
       <c r="I35" t="n">
-        <v>35.5712930941811</v>
+        <v>35.571293095064</v>
       </c>
       <c r="J35" t="n">
-        <v>35.5960787667639</v>
+        <v>35.5960787676472</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.21855625504788</v>
+        <v>-1.21855625498608</v>
       </c>
     </row>
     <row r="36">
@@ -1893,31 +1893,31 @@
         <v>46</v>
       </c>
       <c r="C36" t="n">
-        <v>56.634078779142</v>
+        <v>56.6340787794097</v>
       </c>
       <c r="D36" t="n">
-        <v>59.0744173017923</v>
+        <v>59.0744173020728</v>
       </c>
       <c r="E36" t="n">
-        <v>59.4124167692908</v>
+        <v>59.4124167695655</v>
       </c>
       <c r="F36" t="n">
-        <v>59.5343636377947</v>
+        <v>59.5343636380668</v>
       </c>
       <c r="G36" t="n">
-        <v>59.2883914339851</v>
+        <v>59.2883914342565</v>
       </c>
       <c r="H36" t="n">
-        <v>58.5768538992326</v>
+        <v>58.5768538994981</v>
       </c>
       <c r="I36" t="n">
-        <v>58.582891260327</v>
+        <v>58.5828912605934</v>
       </c>
       <c r="J36" t="n">
-        <v>58.591786090206</v>
+        <v>58.591786090471</v>
       </c>
       <c r="K36" t="n">
-        <v>3.4567655257508</v>
+        <v>3.45676552572978</v>
       </c>
     </row>
     <row r="37">
@@ -1928,31 +1928,31 @@
         <v>47</v>
       </c>
       <c r="C37" t="n">
-        <v>22.884829963274</v>
+        <v>22.8848299636897</v>
       </c>
       <c r="D37" t="n">
-        <v>22.3996237277927</v>
+        <v>22.3996237282071</v>
       </c>
       <c r="E37" t="n">
-        <v>18.6543164151873</v>
+        <v>18.6543164156059</v>
       </c>
       <c r="F37" t="n">
-        <v>17.8569640471218</v>
+        <v>17.8569640475401</v>
       </c>
       <c r="G37" t="n">
-        <v>14.9869440977547</v>
+        <v>14.986944098181</v>
       </c>
       <c r="H37" t="n">
-        <v>15.6343073152805</v>
+        <v>15.6343073157074</v>
       </c>
       <c r="I37" t="n">
-        <v>16.3537266826018</v>
+        <v>16.353726683029</v>
       </c>
       <c r="J37" t="n">
-        <v>16.3533531837685</v>
+        <v>16.3533531841957</v>
       </c>
       <c r="K37" t="n">
-        <v>-28.5406393230249</v>
+        <v>-28.5406393224559</v>
       </c>
     </row>
     <row r="38">
@@ -1963,31 +1963,31 @@
         <v>48</v>
       </c>
       <c r="C38" t="n">
-        <v>45.7944979360879</v>
+        <v>45.7944979369771</v>
       </c>
       <c r="D38" t="n">
-        <v>43.7186789503767</v>
+        <v>43.7186789512386</v>
       </c>
       <c r="E38" t="n">
-        <v>43.027624347547</v>
+        <v>43.0276243484072</v>
       </c>
       <c r="F38" t="n">
-        <v>42.9571144529914</v>
+        <v>42.9571144538573</v>
       </c>
       <c r="G38" t="n">
-        <v>42.3703577106216</v>
+        <v>42.3703577114853</v>
       </c>
       <c r="H38" t="n">
-        <v>42.0644448591581</v>
+        <v>42.0644448600238</v>
       </c>
       <c r="I38" t="n">
-        <v>42.3552269972806</v>
+        <v>42.3552269981497</v>
       </c>
       <c r="J38" t="n">
-        <v>42.382756879657</v>
+        <v>42.3827568805247</v>
       </c>
       <c r="K38" t="n">
-        <v>-7.45011128016404</v>
+        <v>-7.45011128006612</v>
       </c>
     </row>
     <row r="39">
@@ -1998,31 +1998,31 @@
         <v>49</v>
       </c>
       <c r="C39" t="n">
-        <v>28.0294913157251</v>
+        <v>28.0294913157522</v>
       </c>
       <c r="D39" t="n">
-        <v>28.538716968677</v>
+        <v>28.5387169689677</v>
       </c>
       <c r="E39" t="n">
-        <v>28.2304742544094</v>
+        <v>28.2304742544793</v>
       </c>
       <c r="F39" t="n">
-        <v>28.5075244798449</v>
+        <v>28.5075244799121</v>
       </c>
       <c r="G39" t="n">
-        <v>29.2803370048969</v>
+        <v>29.2803370049624</v>
       </c>
       <c r="H39" t="n">
-        <v>29.1953322813025</v>
+        <v>29.1953322813736</v>
       </c>
       <c r="I39" t="n">
-        <v>29.8916681241482</v>
+        <v>29.8916681242226</v>
       </c>
       <c r="J39" t="n">
-        <v>29.8419694053692</v>
+        <v>29.8419694054443</v>
       </c>
       <c r="K39" t="n">
-        <v>6.46632530440279</v>
+        <v>6.46632530456754</v>
       </c>
     </row>
     <row r="40">
@@ -2033,31 +2033,31 @@
         <v>50</v>
       </c>
       <c r="C40" t="n">
-        <v>27.0499051780687</v>
+        <v>27.0499051787762</v>
       </c>
       <c r="D40" t="n">
-        <v>27.3416307653605</v>
+        <v>27.3416307660679</v>
       </c>
       <c r="E40" t="n">
-        <v>27.6752997948947</v>
+        <v>27.6752997955953</v>
       </c>
       <c r="F40" t="n">
-        <v>28.2481935367981</v>
+        <v>28.2481935375029</v>
       </c>
       <c r="G40" t="n">
-        <v>28.0939085296344</v>
+        <v>28.0939085303347</v>
       </c>
       <c r="H40" t="n">
-        <v>28.3565988178027</v>
+        <v>28.3565988185035</v>
       </c>
       <c r="I40" t="n">
-        <v>29.6774538942635</v>
+        <v>29.6774538949675</v>
       </c>
       <c r="J40" t="n">
-        <v>29.674117240263</v>
+        <v>29.6741172409671</v>
       </c>
       <c r="K40" t="n">
-        <v>9.70137249990062</v>
+        <v>9.70137249963425</v>
       </c>
     </row>
     <row r="41">
@@ -2068,31 +2068,31 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>33.4180603356005</v>
+        <v>33.4180603360179</v>
       </c>
       <c r="D41" t="n">
-        <v>32.1151044788254</v>
+        <v>32.1151044791547</v>
       </c>
       <c r="E41" t="n">
-        <v>31.787300367695</v>
+        <v>31.7873003680537</v>
       </c>
       <c r="F41" t="n">
-        <v>31.6007077626052</v>
+        <v>31.6007077629657</v>
       </c>
       <c r="G41" t="n">
-        <v>30.6989807111674</v>
+        <v>30.6989807115264</v>
       </c>
       <c r="H41" t="n">
-        <v>30.3522776241583</v>
+        <v>30.3522776245193</v>
       </c>
       <c r="I41" t="n">
-        <v>30.6329860298317</v>
+        <v>30.6329860301931</v>
       </c>
       <c r="J41" t="n">
-        <v>30.6409764868791</v>
+        <v>30.6409764872407</v>
       </c>
       <c r="K41" t="n">
-        <v>-8.31012877717191</v>
+        <v>-8.31012877723508</v>
       </c>
     </row>
     <row r="42">
@@ -2103,31 +2103,31 @@
         <v>52</v>
       </c>
       <c r="C42" t="n">
-        <v>51.8579117333651</v>
+        <v>51.857911733442</v>
       </c>
       <c r="D42" t="n">
-        <v>50.0326559752076</v>
+        <v>50.0326559753603</v>
       </c>
       <c r="E42" t="n">
-        <v>50.0146206199692</v>
+        <v>50.0146206201293</v>
       </c>
       <c r="F42" t="n">
-        <v>49.6927031669558</v>
+        <v>49.692703167111</v>
       </c>
       <c r="G42" t="n">
-        <v>49.2720612721886</v>
+        <v>49.2720612723403</v>
       </c>
       <c r="H42" t="n">
-        <v>49.5439385395778</v>
+        <v>49.5439385397299</v>
       </c>
       <c r="I42" t="n">
-        <v>49.9081574821099</v>
+        <v>49.9081574822651</v>
       </c>
       <c r="J42" t="n">
-        <v>49.9078257779105</v>
+        <v>49.9078257780663</v>
       </c>
       <c r="K42" t="n">
-        <v>-3.76044057747876</v>
+        <v>-3.76044057732106</v>
       </c>
     </row>
     <row r="43">
@@ -2138,31 +2138,31 @@
         <v>53</v>
       </c>
       <c r="C43" t="n">
-        <v>55.2530089987616</v>
+        <v>55.2530089991131</v>
       </c>
       <c r="D43" t="n">
-        <v>54.8696181306237</v>
+        <v>54.8696181308632</v>
       </c>
       <c r="E43" t="n">
-        <v>54.0513829572392</v>
+        <v>54.0513829574808</v>
       </c>
       <c r="F43" t="n">
-        <v>53.5403590898597</v>
+        <v>53.540359090101</v>
       </c>
       <c r="G43" t="n">
-        <v>53.1158693415556</v>
+        <v>53.115869341796</v>
       </c>
       <c r="H43" t="n">
-        <v>53.0727261209766</v>
+        <v>53.0727261212161</v>
       </c>
       <c r="I43" t="n">
-        <v>53.3702440073396</v>
+        <v>53.3702440075819</v>
       </c>
       <c r="J43" t="n">
-        <v>53.3670860619693</v>
+        <v>53.3670860622121</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.41324928898363</v>
+        <v>-3.4132492891587</v>
       </c>
     </row>
     <row r="44">
@@ -2173,31 +2173,31 @@
         <v>54</v>
       </c>
       <c r="C44" t="n">
-        <v>45.5206038778142</v>
+        <v>45.5206038783635</v>
       </c>
       <c r="D44" t="n">
-        <v>48.4146139848927</v>
+        <v>48.4146139855388</v>
       </c>
       <c r="E44" t="n">
-        <v>47.2073568846615</v>
+        <v>47.2073568853006</v>
       </c>
       <c r="F44" t="n">
-        <v>46.5621481065385</v>
+        <v>46.5621481071804</v>
       </c>
       <c r="G44" t="n">
-        <v>45.6946197126663</v>
+        <v>45.6946197133046</v>
       </c>
       <c r="H44" t="n">
-        <v>45.2020718895946</v>
+        <v>45.2020718902273</v>
       </c>
       <c r="I44" t="n">
-        <v>45.2046676314636</v>
+        <v>45.2046676320965</v>
       </c>
       <c r="J44" t="n">
-        <v>45.2842208993107</v>
+        <v>45.2842208999425</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.519287879260022</v>
+        <v>-0.519287879072705</v>
       </c>
     </row>
     <row r="45">
@@ -2208,31 +2208,31 @@
         <v>55</v>
       </c>
       <c r="C45" t="n">
-        <v>57.6594455710721</v>
+        <v>57.6594455710806</v>
       </c>
       <c r="D45" t="n">
-        <v>57.4749099697991</v>
+        <v>57.4749099702195</v>
       </c>
       <c r="E45" t="n">
-        <v>55.8483643470518</v>
+        <v>55.8483643475165</v>
       </c>
       <c r="F45" t="n">
-        <v>57.4318987507882</v>
+        <v>57.4318987512492</v>
       </c>
       <c r="G45" t="n">
-        <v>57.8796530655011</v>
+        <v>57.8796530659624</v>
       </c>
       <c r="H45" t="n">
-        <v>58.2668176249396</v>
+        <v>58.2668176254064</v>
       </c>
       <c r="I45" t="n">
-        <v>58.4246267392893</v>
+        <v>58.4246267397617</v>
       </c>
       <c r="J45" t="n">
-        <v>58.4126358372836</v>
+        <v>58.4126358377565</v>
       </c>
       <c r="K45" t="n">
-        <v>1.30627386155333</v>
+        <v>1.3062738623586</v>
       </c>
     </row>
     <row r="46">
@@ -2243,31 +2243,31 @@
         <v>56</v>
       </c>
       <c r="C46" t="n">
-        <v>38.6951239584359</v>
+        <v>38.695123958759</v>
       </c>
       <c r="D46" t="n">
-        <v>38.5921301053096</v>
+        <v>38.5921301058991</v>
       </c>
       <c r="E46" t="n">
-        <v>37.6011948738085</v>
+        <v>37.6011948740625</v>
       </c>
       <c r="F46" t="n">
-        <v>37.1711869143604</v>
+        <v>37.1711869146136</v>
       </c>
       <c r="G46" t="n">
-        <v>36.5433110048339</v>
+        <v>36.5433110050867</v>
       </c>
       <c r="H46" t="n">
-        <v>36.7817748573788</v>
+        <v>36.7817748576353</v>
       </c>
       <c r="I46" t="n">
-        <v>37.5121961952703</v>
+        <v>37.5121961955327</v>
       </c>
       <c r="J46" t="n">
-        <v>37.3693041425411</v>
+        <v>37.3693041428045</v>
       </c>
       <c r="K46" t="n">
-        <v>-3.42632269977724</v>
+        <v>-3.42632269990286</v>
       </c>
     </row>
     <row r="47">
@@ -2278,31 +2278,31 @@
         <v>57</v>
       </c>
       <c r="C47" t="n">
-        <v>50.7410175217444</v>
+        <v>50.7410175223627</v>
       </c>
       <c r="D47" t="n">
-        <v>53.7331266858101</v>
+        <v>53.7331266864267</v>
       </c>
       <c r="E47" t="n">
-        <v>54.0255802159406</v>
+        <v>54.0255802165692</v>
       </c>
       <c r="F47" t="n">
-        <v>53.9723171580926</v>
+        <v>53.9723171587246</v>
       </c>
       <c r="G47" t="n">
-        <v>52.7812564480883</v>
+        <v>52.7812564487172</v>
       </c>
       <c r="H47" t="n">
-        <v>52.4831444154805</v>
+        <v>52.4831444161053</v>
       </c>
       <c r="I47" t="n">
-        <v>52.4416420090971</v>
+        <v>52.4416420097214</v>
       </c>
       <c r="J47" t="n">
-        <v>52.5059249890357</v>
+        <v>52.50592498966</v>
       </c>
       <c r="K47" t="n">
-        <v>3.47826581627975</v>
+        <v>3.47826581624902</v>
       </c>
     </row>
     <row r="48">
@@ -2313,31 +2313,31 @@
         <v>58</v>
       </c>
       <c r="C48" t="n">
-        <v>26.2898096233474</v>
+        <v>26.2898096236528</v>
       </c>
       <c r="D48" t="n">
-        <v>25.8697521397258</v>
+        <v>25.8697521400306</v>
       </c>
       <c r="E48" t="n">
-        <v>24.9040699277882</v>
+        <v>24.9040699280945</v>
       </c>
       <c r="F48" t="n">
-        <v>24.4995024383301</v>
+        <v>24.4995024386372</v>
       </c>
       <c r="G48" t="n">
-        <v>23.6654843699265</v>
+        <v>23.6654843702413</v>
       </c>
       <c r="H48" t="n">
-        <v>23.5273844571013</v>
+        <v>23.5273844574193</v>
       </c>
       <c r="I48" t="n">
-        <v>23.1321746263588</v>
+        <v>23.1321746266816</v>
       </c>
       <c r="J48" t="n">
-        <v>23.1330006154941</v>
+        <v>23.1330006158174</v>
       </c>
       <c r="K48" t="n">
-        <v>-12.007728671606</v>
+        <v>-12.0077286713984</v>
       </c>
     </row>
     <row r="49">
@@ -2348,31 +2348,31 @@
         <v>59</v>
       </c>
       <c r="C49" t="n">
-        <v>42.6711984930869</v>
+        <v>42.6711984937931</v>
       </c>
       <c r="D49" t="n">
-        <v>41.3831372068806</v>
+        <v>41.3831372075601</v>
       </c>
       <c r="E49" t="n">
-        <v>40.6308425749975</v>
+        <v>40.6308425756869</v>
       </c>
       <c r="F49" t="n">
-        <v>40.6442939381794</v>
+        <v>40.6442939388728</v>
       </c>
       <c r="G49" t="n">
-        <v>40.1878412864801</v>
+        <v>40.1878412871724</v>
       </c>
       <c r="H49" t="n">
-        <v>40.0141356827941</v>
+        <v>40.0141356834881</v>
       </c>
       <c r="I49" t="n">
-        <v>40.1580828482368</v>
+        <v>40.1580828489336</v>
       </c>
       <c r="J49" t="n">
-        <v>40.174578361178</v>
+        <v>40.1745783618739</v>
       </c>
       <c r="K49" t="n">
-        <v>-5.85083198990372</v>
+        <v>-5.85083198983098</v>
       </c>
     </row>
     <row r="50">
@@ -2383,31 +2383,31 @@
         <v>60</v>
       </c>
       <c r="C50" t="n">
-        <v>35.8168648489859</v>
+        <v>35.8168648493827</v>
       </c>
       <c r="D50" t="n">
-        <v>33.7580155121438</v>
+        <v>33.7580155125359</v>
       </c>
       <c r="E50" t="n">
-        <v>33.0202444873092</v>
+        <v>33.020244487652</v>
       </c>
       <c r="F50" t="n">
-        <v>32.7356857640695</v>
+        <v>32.7356857644126</v>
       </c>
       <c r="G50" t="n">
-        <v>31.305202252834</v>
+        <v>31.305202253175</v>
       </c>
       <c r="H50" t="n">
-        <v>30.7254639494697</v>
+        <v>30.725463949812</v>
       </c>
       <c r="I50" t="n">
-        <v>30.8691731434227</v>
+        <v>30.8691731437648</v>
       </c>
       <c r="J50" t="n">
-        <v>30.8696300261692</v>
+        <v>30.8696300265111</v>
       </c>
       <c r="K50" t="n">
-        <v>-13.812584780035</v>
+        <v>-13.8125847800352</v>
       </c>
     </row>
     <row r="51">
@@ -2418,31 +2418,31 @@
         <v>61</v>
       </c>
       <c r="C51" t="n">
-        <v>35.8168648489859</v>
+        <v>35.8168648493827</v>
       </c>
       <c r="D51" t="n">
-        <v>33.7580155121438</v>
+        <v>33.7580155125359</v>
       </c>
       <c r="E51" t="n">
-        <v>33.0202444873092</v>
+        <v>33.020244487652</v>
       </c>
       <c r="F51" t="n">
-        <v>32.7356857640695</v>
+        <v>32.7356857644126</v>
       </c>
       <c r="G51" t="n">
-        <v>31.305202252834</v>
+        <v>31.305202253175</v>
       </c>
       <c r="H51" t="n">
-        <v>30.7254639494697</v>
+        <v>30.725463949812</v>
       </c>
       <c r="I51" t="n">
-        <v>30.8691731434227</v>
+        <v>30.8691731437648</v>
       </c>
       <c r="J51" t="n">
-        <v>30.8696300261692</v>
+        <v>30.8696300265111</v>
       </c>
       <c r="K51" t="n">
-        <v>-13.812584780035</v>
+        <v>-13.8125847800352</v>
       </c>
     </row>
     <row r="52">
@@ -2453,31 +2453,31 @@
         <v>62</v>
       </c>
       <c r="C52" t="n">
-        <v>35.6127229320427</v>
+        <v>35.6127229324383</v>
       </c>
       <c r="D52" t="n">
-        <v>33.4833575626624</v>
+        <v>33.4833575630533</v>
       </c>
       <c r="E52" t="n">
-        <v>32.7281928853469</v>
+        <v>32.7281928856879</v>
       </c>
       <c r="F52" t="n">
-        <v>32.4311913178827</v>
+        <v>32.4311913182239</v>
       </c>
       <c r="G52" t="n">
-        <v>30.9917500350951</v>
+        <v>30.9917500354342</v>
       </c>
       <c r="H52" t="n">
-        <v>30.3938280271382</v>
+        <v>30.3938280274786</v>
       </c>
       <c r="I52" t="n">
-        <v>30.5480613180728</v>
+        <v>30.548061318413</v>
       </c>
       <c r="J52" t="n">
-        <v>30.5490482770519</v>
+        <v>30.5490482773918</v>
       </c>
       <c r="K52" t="n">
-        <v>-14.2187236416981</v>
+        <v>-14.2187236416965</v>
       </c>
     </row>
     <row r="53">
@@ -2488,31 +2488,31 @@
         <v>63</v>
       </c>
       <c r="C53" t="n">
-        <v>24.7363968672355</v>
+        <v>24.7363968677452</v>
       </c>
       <c r="D53" t="n">
-        <v>24.7220010097263</v>
+        <v>24.7220010102174</v>
       </c>
       <c r="E53" t="n">
-        <v>26.0584976376596</v>
+        <v>26.0584976379722</v>
       </c>
       <c r="F53" t="n">
-        <v>27.1268434004866</v>
+        <v>27.1268434008086</v>
       </c>
       <c r="G53" t="n">
-        <v>27.6719296625729</v>
+        <v>27.6719296629004</v>
       </c>
       <c r="H53" t="n">
-        <v>27.2993725160272</v>
+        <v>27.2993725163639</v>
       </c>
       <c r="I53" t="n">
-        <v>26.8440715868458</v>
+        <v>26.8440715871816</v>
       </c>
       <c r="J53" t="n">
-        <v>26.9595062398225</v>
+        <v>26.9595062401587</v>
       </c>
       <c r="K53" t="n">
-        <v>8.98719964964525</v>
+        <v>8.98719964875827</v>
       </c>
     </row>
     <row r="54">
@@ -2523,31 +2523,31 @@
         <v>64</v>
       </c>
       <c r="C54" t="n">
-        <v>24.7363968672355</v>
+        <v>24.7363968677452</v>
       </c>
       <c r="D54" t="n">
-        <v>24.7220010097263</v>
+        <v>24.7220010102174</v>
       </c>
       <c r="E54" t="n">
-        <v>26.0584976376596</v>
+        <v>26.0584976379722</v>
       </c>
       <c r="F54" t="n">
-        <v>27.1268434004866</v>
+        <v>27.1268434008086</v>
       </c>
       <c r="G54" t="n">
-        <v>27.6719296625729</v>
+        <v>27.6719296629004</v>
       </c>
       <c r="H54" t="n">
-        <v>27.2993725160272</v>
+        <v>27.2993725163639</v>
       </c>
       <c r="I54" t="n">
-        <v>26.8440715868458</v>
+        <v>26.8440715871816</v>
       </c>
       <c r="J54" t="n">
-        <v>26.9595062398225</v>
+        <v>26.9595062401587</v>
       </c>
       <c r="K54" t="n">
-        <v>8.98719964964525</v>
+        <v>8.98719964875827</v>
       </c>
     </row>
     <row r="55">
@@ -2558,31 +2558,31 @@
         <v>65</v>
       </c>
       <c r="C55" t="n">
-        <v>24.7363968672355</v>
+        <v>24.7363968677452</v>
       </c>
       <c r="D55" t="n">
-        <v>24.7220010097263</v>
+        <v>24.7220010102174</v>
       </c>
       <c r="E55" t="n">
-        <v>26.0584976376596</v>
+        <v>26.0584976379722</v>
       </c>
       <c r="F55" t="n">
-        <v>27.1268434004866</v>
+        <v>27.1268434008086</v>
       </c>
       <c r="G55" t="n">
-        <v>27.6719296625729</v>
+        <v>27.6719296629004</v>
       </c>
       <c r="H55" t="n">
-        <v>27.2993725160272</v>
+        <v>27.2993725163639</v>
       </c>
       <c r="I55" t="n">
-        <v>26.8440715868458</v>
+        <v>26.8440715871816</v>
       </c>
       <c r="J55" t="n">
-        <v>26.9595062398225</v>
+        <v>26.9595062401587</v>
       </c>
       <c r="K55" t="n">
-        <v>8.98719964964525</v>
+        <v>8.98719964875827</v>
       </c>
     </row>
     <row r="56">
@@ -2593,31 +2593,31 @@
         <v>66</v>
       </c>
       <c r="C56" t="n">
-        <v>64.47578035478</v>
+        <v>64.4757803550527</v>
       </c>
       <c r="D56" t="n">
-        <v>64.5908254755546</v>
+        <v>64.5908254758605</v>
       </c>
       <c r="E56" t="n">
-        <v>64.841109074193</v>
+        <v>64.8411090745079</v>
       </c>
       <c r="F56" t="n">
-        <v>65.0733511083417</v>
+        <v>65.0733511086533</v>
       </c>
       <c r="G56" t="n">
-        <v>64.8913798628309</v>
+        <v>64.891379863136</v>
       </c>
       <c r="H56" t="n">
-        <v>65.4244008098463</v>
+        <v>65.4244008101523</v>
       </c>
       <c r="I56" t="n">
-        <v>65.5071600825443</v>
+        <v>65.5071600828513</v>
       </c>
       <c r="J56" t="n">
-        <v>65.5303863556474</v>
+        <v>65.5303863559535</v>
       </c>
       <c r="K56" t="n">
-        <v>1.63566225187877</v>
+        <v>1.63566225192362</v>
       </c>
     </row>
     <row r="57">
@@ -2628,31 +2628,31 @@
         <v>67</v>
       </c>
       <c r="C57" t="n">
-        <v>58.8116188150477</v>
+        <v>58.8116188154939</v>
       </c>
       <c r="D57" t="n">
-        <v>58.4698990803617</v>
+        <v>58.4698990808617</v>
       </c>
       <c r="E57" t="n">
-        <v>57.5300169966293</v>
+        <v>57.5300169971483</v>
       </c>
       <c r="F57" t="n">
-        <v>57.4539208196751</v>
+        <v>57.4539208201938</v>
       </c>
       <c r="G57" t="n">
-        <v>57.8951236938028</v>
+        <v>57.895123694319</v>
       </c>
       <c r="H57" t="n">
-        <v>57.4297733373398</v>
+        <v>57.4297733378536</v>
       </c>
       <c r="I57" t="n">
-        <v>57.5115501909042</v>
+        <v>57.5115501914188</v>
       </c>
       <c r="J57" t="n">
-        <v>57.5292053848142</v>
+        <v>57.529205385328</v>
       </c>
       <c r="K57" t="n">
-        <v>-2.18054434833095</v>
+        <v>-2.18054434819938</v>
       </c>
     </row>
     <row r="58">
@@ -2663,31 +2663,31 @@
         <v>68</v>
       </c>
       <c r="C58" t="n">
-        <v>19.0526937145166</v>
+        <v>19.05269371525</v>
       </c>
       <c r="D58" t="n">
-        <v>19.4447780690746</v>
+        <v>19.4447780687367</v>
       </c>
       <c r="E58" t="n">
-        <v>16.3649956689181</v>
+        <v>16.3649956685995</v>
       </c>
       <c r="F58" t="n">
-        <v>15.2990024965487</v>
+        <v>15.2990024962248</v>
       </c>
       <c r="G58" t="n">
-        <v>14.7379461395423</v>
+        <v>14.7379461392192</v>
       </c>
       <c r="H58" t="n">
-        <v>15.0844443957994</v>
+        <v>15.0844443954741</v>
       </c>
       <c r="I58" t="n">
-        <v>15.2854365116097</v>
+        <v>15.2854365112821</v>
       </c>
       <c r="J58" t="n">
-        <v>15.3279603153236</v>
+        <v>15.327960314995</v>
       </c>
       <c r="K58" t="n">
-        <v>-19.5496419299231</v>
+        <v>-19.5496419347446</v>
       </c>
     </row>
     <row r="59">
@@ -2698,31 +2698,31 @@
         <v>69</v>
       </c>
       <c r="C59" t="n">
-        <v>36.2830477856137</v>
+        <v>36.2830477862326</v>
       </c>
       <c r="D59" t="n">
-        <v>34.6562185767275</v>
+        <v>34.6562185773267</v>
       </c>
       <c r="E59" t="n">
-        <v>34.1386347176384</v>
+        <v>34.1386347182231</v>
       </c>
       <c r="F59" t="n">
-        <v>33.9464839727842</v>
+        <v>33.9464839733726</v>
       </c>
       <c r="G59" t="n">
-        <v>33.1138693954349</v>
+        <v>33.1138693960228</v>
       </c>
       <c r="H59" t="n">
-        <v>32.8911890254732</v>
+        <v>32.891189026065</v>
       </c>
       <c r="I59" t="n">
-        <v>33.1466176618457</v>
+        <v>33.1466176624405</v>
       </c>
       <c r="J59" t="n">
-        <v>33.1596552826776</v>
+        <v>33.159655283273</v>
       </c>
       <c r="K59" t="n">
-        <v>-8.60840721372498</v>
+        <v>-8.60840721364299</v>
       </c>
     </row>
     <row r="60">
@@ -2733,31 +2733,31 @@
         <v>70</v>
       </c>
       <c r="C60" t="n">
-        <v>41.5973024499847</v>
+        <v>41.5973024505207</v>
       </c>
       <c r="D60" t="n">
-        <v>40.3116356762688</v>
+        <v>40.3116356767875</v>
       </c>
       <c r="E60" t="n">
-        <v>39.8170925303681</v>
+        <v>39.8170925308774</v>
       </c>
       <c r="F60" t="n">
-        <v>39.7579933316328</v>
+        <v>39.7579933321442</v>
       </c>
       <c r="G60" t="n">
-        <v>39.2114862346493</v>
+        <v>39.2114862351592</v>
       </c>
       <c r="H60" t="n">
-        <v>39.0056722524274</v>
+        <v>39.0056722529388</v>
       </c>
       <c r="I60" t="n">
-        <v>39.2664725248379</v>
+        <v>39.2664725253512</v>
       </c>
       <c r="J60" t="n">
-        <v>39.3440067696392</v>
+        <v>39.344006770152</v>
       </c>
       <c r="K60" t="n">
-        <v>-5.41692741507657</v>
+        <v>-5.41692741506227</v>
       </c>
     </row>
     <row r="61">
@@ -2768,31 +2768,31 @@
         <v>71</v>
       </c>
       <c r="C61" t="n">
-        <v>56.8520539150134</v>
+        <v>56.8520539150644</v>
       </c>
       <c r="D61" t="n">
-        <v>55.9113619748706</v>
+        <v>55.9113619748652</v>
       </c>
       <c r="E61" t="n">
-        <v>55.4741163373555</v>
+        <v>55.4741163373662</v>
       </c>
       <c r="F61" t="n">
-        <v>54.9523627856195</v>
+        <v>54.9523627856293</v>
       </c>
       <c r="G61" t="n">
-        <v>54.9420328138564</v>
+        <v>54.9420328138646</v>
       </c>
       <c r="H61" t="n">
-        <v>54.3046550708914</v>
+        <v>54.3046550708944</v>
       </c>
       <c r="I61" t="n">
-        <v>54.6570418779888</v>
+        <v>54.6570418779951</v>
       </c>
       <c r="J61" t="n">
-        <v>54.6806647866693</v>
+        <v>54.6806647866758</v>
       </c>
       <c r="K61" t="n">
-        <v>-3.81936795386495</v>
+        <v>-3.81936795393997</v>
       </c>
     </row>
     <row r="62">
@@ -2803,31 +2803,31 @@
         <v>72</v>
       </c>
       <c r="C62" t="n">
-        <v>58.1139672009588</v>
+        <v>58.1139672013612</v>
       </c>
       <c r="D62" t="n">
-        <v>57.906027328198</v>
+        <v>57.9060273286188</v>
       </c>
       <c r="E62" t="n">
-        <v>57.1810075705003</v>
+        <v>57.1810075709264</v>
       </c>
       <c r="F62" t="n">
-        <v>57.6303566613755</v>
+        <v>57.6303566618024</v>
       </c>
       <c r="G62" t="n">
-        <v>57.7317348200881</v>
+        <v>57.7317348205131</v>
       </c>
       <c r="H62" t="n">
-        <v>57.4731677287799</v>
+        <v>57.4731677292042</v>
       </c>
       <c r="I62" t="n">
-        <v>57.3615475481393</v>
+        <v>57.3615475485645</v>
       </c>
       <c r="J62" t="n">
-        <v>57.3828630923848</v>
+        <v>57.3828630928098</v>
       </c>
       <c r="K62" t="n">
-        <v>-1.25805231304524</v>
+        <v>-1.25805231299772</v>
       </c>
     </row>
     <row r="63">
@@ -2838,31 +2838,31 @@
         <v>73</v>
       </c>
       <c r="C63" t="n">
-        <v>57.6912224640107</v>
+        <v>57.6912224642954</v>
       </c>
       <c r="D63" t="n">
-        <v>57.2370789991888</v>
+        <v>57.2370789994667</v>
       </c>
       <c r="E63" t="n">
-        <v>56.6080205163391</v>
+        <v>56.6080205166257</v>
       </c>
       <c r="F63" t="n">
-        <v>56.730716156644</v>
+        <v>56.7307161569309</v>
       </c>
       <c r="G63" t="n">
-        <v>56.7940930994014</v>
+        <v>56.7940930996864</v>
       </c>
       <c r="H63" t="n">
-        <v>56.4078973677009</v>
+        <v>56.4078973679836</v>
       </c>
       <c r="I63" t="n">
-        <v>56.4522330540414</v>
+        <v>56.4522330543256</v>
       </c>
       <c r="J63" t="n">
-        <v>56.4745095499855</v>
+        <v>56.4745095502698</v>
       </c>
       <c r="K63" t="n">
-        <v>-2.10900872274664</v>
+        <v>-2.10900872273693</v>
       </c>
     </row>
     <row r="64">
@@ -2873,31 +2873,31 @@
         <v>74</v>
       </c>
       <c r="C64" t="n">
-        <v>33.4556120678603</v>
+        <v>33.4556120682371</v>
       </c>
       <c r="D64" t="n">
-        <v>31.7288312735672</v>
+        <v>31.7288312739063</v>
       </c>
       <c r="E64" t="n">
-        <v>31.229063352855</v>
+        <v>31.229063353161</v>
       </c>
       <c r="F64" t="n">
-        <v>30.972938649752</v>
+        <v>30.9729386500594</v>
       </c>
       <c r="G64" t="n">
-        <v>29.9182649244945</v>
+        <v>29.9182649247996</v>
       </c>
       <c r="H64" t="n">
-        <v>29.2813744541834</v>
+        <v>29.2813744544897</v>
       </c>
       <c r="I64" t="n">
-        <v>29.6019824939745</v>
+        <v>29.6019824942808</v>
       </c>
       <c r="J64" t="n">
-        <v>29.60069642767</v>
+        <v>29.6006964279762</v>
       </c>
       <c r="K64" t="n">
-        <v>-11.5224782986219</v>
+        <v>-11.5224782987029</v>
       </c>
     </row>
     <row r="65">
@@ -2908,31 +2908,31 @@
         <v>75</v>
       </c>
       <c r="C65" t="n">
-        <v>29.5288147749645</v>
+        <v>29.5288147751155</v>
       </c>
       <c r="D65" t="n">
-        <v>29.8050723206426</v>
+        <v>29.8050723208581</v>
       </c>
       <c r="E65" t="n">
-        <v>29.2484614173962</v>
+        <v>29.24846141774</v>
       </c>
       <c r="F65" t="n">
-        <v>29.1810092649327</v>
+        <v>29.1810092652757</v>
       </c>
       <c r="G65" t="n">
-        <v>29.8638407507043</v>
+        <v>29.8638407510464</v>
       </c>
       <c r="H65" t="n">
-        <v>29.8599152879528</v>
+        <v>29.8599152882993</v>
       </c>
       <c r="I65" t="n">
-        <v>30.2477189708431</v>
+        <v>30.2477189711951</v>
       </c>
       <c r="J65" t="n">
-        <v>30.2255548372425</v>
+        <v>30.2255548375952</v>
       </c>
       <c r="K65" t="n">
-        <v>2.35952600057896</v>
+        <v>2.35952600124982</v>
       </c>
     </row>
     <row r="66">
@@ -2943,31 +2943,31 @@
         <v>76</v>
       </c>
       <c r="C66" t="n">
-        <v>29.5561243869554</v>
+        <v>29.556124387101</v>
       </c>
       <c r="D66" t="n">
-        <v>29.8354556050152</v>
+        <v>29.8354556052352</v>
       </c>
       <c r="E66" t="n">
-        <v>29.3016050555703</v>
+        <v>29.3016050559192</v>
       </c>
       <c r="F66" t="n">
-        <v>29.245141926203</v>
+        <v>29.2451419265511</v>
       </c>
       <c r="G66" t="n">
-        <v>29.9383887268961</v>
+        <v>29.9383887272433</v>
       </c>
       <c r="H66" t="n">
-        <v>29.9318791437819</v>
+        <v>29.9318791441336</v>
       </c>
       <c r="I66" t="n">
-        <v>30.3230201003358</v>
+        <v>30.3230201006931</v>
       </c>
       <c r="J66" t="n">
-        <v>30.3012586962767</v>
+        <v>30.3012586966347</v>
       </c>
       <c r="K66" t="n">
-        <v>2.52108260056616</v>
+        <v>2.52108260127266</v>
       </c>
     </row>
     <row r="67">
@@ -2978,31 +2978,31 @@
         <v>77</v>
       </c>
       <c r="C67" t="n">
-        <v>29.7093359253125</v>
+        <v>29.7093359254524</v>
       </c>
       <c r="D67" t="n">
-        <v>30.0123584093534</v>
+        <v>30.0123584095591</v>
       </c>
       <c r="E67" t="n">
-        <v>29.4626805932233</v>
+        <v>29.4626805935597</v>
       </c>
       <c r="F67" t="n">
-        <v>29.4111181767791</v>
+        <v>29.4111181771149</v>
       </c>
       <c r="G67" t="n">
-        <v>30.1000615953025</v>
+        <v>30.1000615956374</v>
       </c>
       <c r="H67" t="n">
-        <v>30.05794715669</v>
+        <v>30.0579471570295</v>
       </c>
       <c r="I67" t="n">
-        <v>30.4607953946643</v>
+        <v>30.4607953950094</v>
       </c>
       <c r="J67" t="n">
-        <v>30.4360705827101</v>
+        <v>30.436070583056</v>
       </c>
       <c r="K67" t="n">
-        <v>2.44614911361378</v>
+        <v>2.44614911429575</v>
       </c>
     </row>
     <row r="68">
@@ -3013,31 +3013,31 @@
         <v>78</v>
       </c>
       <c r="C68" t="n">
-        <v>59.5539811064662</v>
+        <v>59.55398110687</v>
       </c>
       <c r="D68" t="n">
-        <v>59.3702903692121</v>
+        <v>59.3702903696463</v>
       </c>
       <c r="E68" t="n">
-        <v>58.426717598644</v>
+        <v>58.4267175990805</v>
       </c>
       <c r="F68" t="n">
-        <v>58.6579368424006</v>
+        <v>58.6579368428375</v>
       </c>
       <c r="G68" t="n">
-        <v>58.7953261516886</v>
+        <v>58.7953261521237</v>
       </c>
       <c r="H68" t="n">
-        <v>58.6848126190119</v>
+        <v>58.6848126194466</v>
       </c>
       <c r="I68" t="n">
-        <v>58.3909935269398</v>
+        <v>58.3909935273748</v>
       </c>
       <c r="J68" t="n">
-        <v>58.4113220000851</v>
+        <v>58.41132200052</v>
       </c>
       <c r="K68" t="n">
-        <v>-1.91869474576079</v>
+        <v>-1.9186947456955</v>
       </c>
     </row>
     <row r="69">
@@ -3048,31 +3048,31 @@
         <v>79</v>
       </c>
       <c r="C69" t="n">
-        <v>41.6245323134228</v>
+        <v>41.6245323139584</v>
       </c>
       <c r="D69" t="n">
-        <v>40.3616939825464</v>
+        <v>40.3616939830659</v>
       </c>
       <c r="E69" t="n">
-        <v>39.8754863666107</v>
+        <v>39.8754863671209</v>
       </c>
       <c r="F69" t="n">
-        <v>39.8173865156933</v>
+        <v>39.8173865162056</v>
       </c>
       <c r="G69" t="n">
-        <v>39.2724377678523</v>
+        <v>39.272437768363</v>
       </c>
       <c r="H69" t="n">
-        <v>39.0730594273801</v>
+        <v>39.0730594278923</v>
       </c>
       <c r="I69" t="n">
-        <v>39.3336786595563</v>
+        <v>39.3336786600704</v>
       </c>
       <c r="J69" t="n">
-        <v>39.4107720510039</v>
+        <v>39.4107720515176</v>
       </c>
       <c r="K69" t="n">
-        <v>-5.3184027288277</v>
+        <v>-5.31840272881206</v>
       </c>
     </row>
     <row r="70">
@@ -3083,31 +3083,31 @@
         <v>80</v>
       </c>
       <c r="C70" t="n">
-        <v>64.6246477557868</v>
+        <v>64.6246477562522</v>
       </c>
       <c r="D70" t="n">
-        <v>64.8579215124675</v>
+        <v>64.8579215129851</v>
       </c>
       <c r="E70" t="n">
-        <v>64.318879434418</v>
+        <v>64.318879434929</v>
       </c>
       <c r="F70" t="n">
-        <v>64.9856830255697</v>
+        <v>64.9856830260819</v>
       </c>
       <c r="G70" t="n">
-        <v>65.8585952521641</v>
+        <v>65.8585952526738</v>
       </c>
       <c r="H70" t="n">
-        <v>65.586596324803</v>
+        <v>65.5865963253103</v>
       </c>
       <c r="I70" t="n">
-        <v>65.2901439022829</v>
+        <v>65.29014390279</v>
       </c>
       <c r="J70" t="n">
-        <v>65.275402655115</v>
+        <v>65.2754026556213</v>
       </c>
       <c r="K70" t="n">
-        <v>1.00697631929429</v>
+        <v>1.00697631935052</v>
       </c>
     </row>
     <row r="71">
@@ -3118,31 +3118,31 @@
         <v>81</v>
       </c>
       <c r="C71" t="n">
-        <v>44.7941633622236</v>
+        <v>44.7941633629456</v>
       </c>
       <c r="D71" t="n">
-        <v>43.1913112158542</v>
+        <v>43.1913112165721</v>
       </c>
       <c r="E71" t="n">
-        <v>42.6083421040152</v>
+        <v>42.6083421047216</v>
       </c>
       <c r="F71" t="n">
-        <v>42.3880011549574</v>
+        <v>42.388001155666</v>
       </c>
       <c r="G71" t="n">
-        <v>41.7937284935302</v>
+        <v>41.7937284942362</v>
       </c>
       <c r="H71" t="n">
-        <v>41.6918945278326</v>
+        <v>41.6918945285389</v>
       </c>
       <c r="I71" t="n">
-        <v>41.9098564164632</v>
+        <v>41.9098564171719</v>
       </c>
       <c r="J71" t="n">
-        <v>41.94509299116</v>
+        <v>41.9450929918668</v>
       </c>
       <c r="K71" t="n">
-        <v>-6.36036071937516</v>
+        <v>-6.3603607193067</v>
       </c>
     </row>
     <row r="72">
@@ -3153,31 +3153,31 @@
         <v>82</v>
       </c>
       <c r="C72" t="n">
-        <v>47.0568283639451</v>
+        <v>47.0568283647325</v>
       </c>
       <c r="D72" t="n">
-        <v>49.2582174106186</v>
+        <v>49.2582174111024</v>
       </c>
       <c r="E72" t="n">
-        <v>49.1387190884653</v>
+        <v>49.1387190889511</v>
       </c>
       <c r="F72" t="n">
-        <v>49.1296108482364</v>
+        <v>49.1296108487239</v>
       </c>
       <c r="G72" t="n">
-        <v>47.036634743651</v>
+        <v>47.0366347441391</v>
       </c>
       <c r="H72" t="n">
-        <v>47.8815972571124</v>
+        <v>47.8815972575991</v>
       </c>
       <c r="I72" t="n">
-        <v>47.8539319316564</v>
+        <v>47.8539319321431</v>
       </c>
       <c r="J72" t="n">
-        <v>47.8909494849789</v>
+        <v>47.8909494854665</v>
       </c>
       <c r="K72" t="n">
-        <v>1.77258253485046</v>
+        <v>1.7725825341834</v>
       </c>
     </row>
     <row r="73">
@@ -3188,31 +3188,31 @@
         <v>83</v>
       </c>
       <c r="C73" t="n">
-        <v>47.0568283639451</v>
+        <v>47.0568283647325</v>
       </c>
       <c r="D73" t="n">
-        <v>49.2582174106186</v>
+        <v>49.2582174111024</v>
       </c>
       <c r="E73" t="n">
-        <v>49.1387190884653</v>
+        <v>49.1387190889511</v>
       </c>
       <c r="F73" t="n">
-        <v>49.1296108482364</v>
+        <v>49.1296108487239</v>
       </c>
       <c r="G73" t="n">
-        <v>47.036634743651</v>
+        <v>47.0366347441391</v>
       </c>
       <c r="H73" t="n">
-        <v>47.8815972571124</v>
+        <v>47.8815972575991</v>
       </c>
       <c r="I73" t="n">
-        <v>47.8539319316564</v>
+        <v>47.8539319321431</v>
       </c>
       <c r="J73" t="n">
-        <v>47.8909494849789</v>
+        <v>47.8909494854665</v>
       </c>
       <c r="K73" t="n">
-        <v>1.77258253485046</v>
+        <v>1.7725825341834</v>
       </c>
     </row>
     <row r="74">
@@ -3223,31 +3223,31 @@
         <v>84</v>
       </c>
       <c r="C74" t="n">
-        <v>47.0768070163807</v>
+        <v>47.0768070171753</v>
       </c>
       <c r="D74" t="n">
-        <v>49.275271780637</v>
+        <v>49.2752717811239</v>
       </c>
       <c r="E74" t="n">
-        <v>49.1279204506975</v>
+        <v>49.1279204511865</v>
       </c>
       <c r="F74" t="n">
-        <v>49.146599783376</v>
+        <v>49.1465997838669</v>
       </c>
       <c r="G74" t="n">
-        <v>47.0260788391068</v>
+        <v>47.0260788395982</v>
       </c>
       <c r="H74" t="n">
-        <v>47.9129654334259</v>
+        <v>47.912965433916</v>
       </c>
       <c r="I74" t="n">
-        <v>47.7986107742535</v>
+        <v>47.7986107747435</v>
       </c>
       <c r="J74" t="n">
-        <v>47.8357381879039</v>
+        <v>47.8357381883947</v>
       </c>
       <c r="K74" t="n">
-        <v>1.61211267208321</v>
+        <v>1.61211267141059</v>
       </c>
     </row>
     <row r="75">
@@ -3258,31 +3258,31 @@
         <v>85</v>
       </c>
       <c r="C75" t="n">
-        <v>39.159319108325</v>
+        <v>39.1593191088682</v>
       </c>
       <c r="D75" t="n">
-        <v>37.7015969869371</v>
+        <v>37.7015969874569</v>
       </c>
       <c r="E75" t="n">
-        <v>37.1858693953618</v>
+        <v>37.185869395872</v>
       </c>
       <c r="F75" t="n">
-        <v>37.0101367198046</v>
+        <v>37.0101367203169</v>
       </c>
       <c r="G75" t="n">
-        <v>36.2652766125054</v>
+        <v>36.2652766130162</v>
       </c>
       <c r="H75" t="n">
-        <v>36.0308252279843</v>
+        <v>36.0308252284971</v>
       </c>
       <c r="I75" t="n">
-        <v>36.3111610182332</v>
+        <v>36.3111610187481</v>
       </c>
       <c r="J75" t="n">
-        <v>36.3528745518857</v>
+        <v>36.3528745524003</v>
       </c>
       <c r="K75" t="n">
-        <v>-7.16673481649643</v>
+        <v>-7.16673481647018</v>
       </c>
     </row>
     <row r="76">
@@ -3293,31 +3293,31 @@
         <v>86</v>
       </c>
       <c r="C76" t="n">
-        <v>27.4053967351982</v>
+        <v>27.405396735568</v>
       </c>
       <c r="D76" t="n">
-        <v>27.5127217624077</v>
+        <v>27.5127217625723</v>
       </c>
       <c r="E76" t="n">
-        <v>26.7283909837871</v>
+        <v>26.7283909846459</v>
       </c>
       <c r="F76" t="n">
-        <v>26.9120000805853</v>
+        <v>26.9120000814474</v>
       </c>
       <c r="G76" t="n">
-        <v>28.6373608372795</v>
+        <v>28.6373608381448</v>
       </c>
       <c r="H76" t="n">
-        <v>29.5962651014321</v>
+        <v>29.5962651023053</v>
       </c>
       <c r="I76" t="n">
-        <v>29.550686585438</v>
+        <v>29.5506865863189</v>
       </c>
       <c r="J76" t="n">
-        <v>29.5555207770563</v>
+        <v>29.5555207779369</v>
       </c>
       <c r="K76" t="n">
-        <v>7.84562275318781</v>
+        <v>7.84562275494605</v>
       </c>
     </row>
     <row r="77">
@@ -3328,31 +3328,31 @@
         <v>87</v>
       </c>
       <c r="C77" t="n">
-        <v>40.2197315892123</v>
+        <v>40.2197315897448</v>
       </c>
       <c r="D77" t="n">
-        <v>39.4965761692309</v>
+        <v>39.4965761697246</v>
       </c>
       <c r="E77" t="n">
-        <v>39.4182534569644</v>
+        <v>39.4182534574879</v>
       </c>
       <c r="F77" t="n">
-        <v>38.5323355318696</v>
+        <v>38.5323355323905</v>
       </c>
       <c r="G77" t="n">
-        <v>38.6575090811111</v>
+        <v>38.6575090816281</v>
       </c>
       <c r="H77" t="n">
-        <v>37.9091368238957</v>
+        <v>37.9091368244069</v>
       </c>
       <c r="I77" t="n">
-        <v>36.763538286497</v>
+        <v>36.7635382870059</v>
       </c>
       <c r="J77" t="n">
-        <v>36.830114650216</v>
+        <v>36.8301146507239</v>
       </c>
       <c r="K77" t="n">
-        <v>-8.42774629531693</v>
+        <v>-8.42774629526659</v>
       </c>
     </row>
     <row r="78">
@@ -3363,31 +3363,31 @@
         <v>88</v>
       </c>
       <c r="C78" t="n">
-        <v>35.219122042013</v>
+        <v>35.2191220423328</v>
       </c>
       <c r="D78" t="n">
-        <v>34.5602005962132</v>
+        <v>34.5602005965315</v>
       </c>
       <c r="E78" t="n">
-        <v>31.3706194062767</v>
+        <v>31.370619406588</v>
       </c>
       <c r="F78" t="n">
-        <v>30.0265994450181</v>
+        <v>30.0265994453234</v>
       </c>
       <c r="G78" t="n">
-        <v>28.5397191140093</v>
+        <v>28.5397191143133</v>
       </c>
       <c r="H78" t="n">
-        <v>28.1108720074006</v>
+        <v>28.1108720076997</v>
       </c>
       <c r="I78" t="n">
-        <v>28.3987618400958</v>
+        <v>28.3987618403989</v>
       </c>
       <c r="J78" t="n">
-        <v>28.5013199540342</v>
+        <v>28.5013199543368</v>
       </c>
       <c r="K78" t="n">
-        <v>-19.0743031014946</v>
+        <v>-19.07430310137</v>
       </c>
     </row>
     <row r="79">
@@ -3398,31 +3398,31 @@
         <v>89</v>
       </c>
       <c r="C79" t="n">
-        <v>17.9831879075048</v>
+        <v>17.9831879081114</v>
       </c>
       <c r="D79" t="n">
-        <v>18.7790660597055</v>
+        <v>18.7790660605977</v>
       </c>
       <c r="E79" t="n">
-        <v>23.636217041755</v>
+        <v>23.6362170422334</v>
       </c>
       <c r="F79" t="n">
-        <v>23.8679812607641</v>
+        <v>23.8679812612419</v>
       </c>
       <c r="G79" t="n">
-        <v>20.0301075565079</v>
+        <v>20.0301075569842</v>
       </c>
       <c r="H79" t="n">
-        <v>19.8195038766114</v>
+        <v>19.819503877093</v>
       </c>
       <c r="I79" t="n">
-        <v>18.4835057545327</v>
+        <v>18.4835057550156</v>
       </c>
       <c r="J79" t="n">
-        <v>18.454410837739</v>
+        <v>18.454410838223</v>
       </c>
       <c r="K79" t="n">
-        <v>2.62035259075255</v>
+        <v>2.62035258998201</v>
       </c>
     </row>
     <row r="80">
@@ -3433,31 +3433,31 @@
         <v>90</v>
       </c>
       <c r="C80" t="n">
-        <v>60.4907473905254</v>
+        <v>60.4907473908124</v>
       </c>
       <c r="D80" t="n">
-        <v>59.845328611075</v>
+        <v>59.8453286114066</v>
       </c>
       <c r="E80" t="n">
-        <v>59.4342680030433</v>
+        <v>59.4342680033874</v>
       </c>
       <c r="F80" t="n">
-        <v>59.0979454358564</v>
+        <v>59.0979454361964</v>
       </c>
       <c r="G80" t="n">
-        <v>59.2367112067321</v>
+        <v>59.2367112070697</v>
       </c>
       <c r="H80" t="n">
-        <v>59.4846836381126</v>
+        <v>59.4846836384504</v>
       </c>
       <c r="I80" t="n">
-        <v>59.659902465066</v>
+        <v>59.659902465406</v>
       </c>
       <c r="J80" t="n">
-        <v>59.6495388534526</v>
+        <v>59.6495388537923</v>
       </c>
       <c r="K80" t="n">
-        <v>-1.39064001249976</v>
+        <v>-1.39064001240595</v>
       </c>
     </row>
     <row r="81">
@@ -3468,31 +3468,31 @@
         <v>91</v>
       </c>
       <c r="C81" t="n">
-        <v>37.6461034496382</v>
+        <v>37.6461034501193</v>
       </c>
       <c r="D81" t="n">
-        <v>36.9995548187654</v>
+        <v>36.9995548192169</v>
       </c>
       <c r="E81" t="n">
-        <v>36.586167811039</v>
+        <v>36.5861678115136</v>
       </c>
       <c r="F81" t="n">
-        <v>35.7684806610982</v>
+        <v>35.7684806615708</v>
       </c>
       <c r="G81" t="n">
-        <v>35.6597932917391</v>
+        <v>35.6597932922102</v>
       </c>
       <c r="H81" t="n">
-        <v>35.0538103720729</v>
+        <v>35.0538103725401</v>
       </c>
       <c r="I81" t="n">
-        <v>34.1470697177381</v>
+        <v>34.1470697182049</v>
       </c>
       <c r="J81" t="n">
-        <v>34.2305882423925</v>
+        <v>34.2305882428588</v>
       </c>
       <c r="K81" t="n">
-        <v>-9.07269250804359</v>
+        <v>-9.07269250796704</v>
       </c>
     </row>
     <row r="82">
@@ -3503,31 +3503,31 @@
         <v>92</v>
       </c>
       <c r="C82" t="n">
-        <v>45.9445167711823</v>
+        <v>45.9445167720921</v>
       </c>
       <c r="D82" t="n">
-        <v>43.8372312462748</v>
+        <v>43.8372312471555</v>
       </c>
       <c r="E82" t="n">
-        <v>43.2283375717291</v>
+        <v>43.2283375726126</v>
       </c>
       <c r="F82" t="n">
-        <v>43.2267974156035</v>
+        <v>43.2267974164934</v>
       </c>
       <c r="G82" t="n">
-        <v>42.748706616094</v>
+        <v>42.7487066169823</v>
       </c>
       <c r="H82" t="n">
-        <v>42.4839523741095</v>
+        <v>42.483952375</v>
       </c>
       <c r="I82" t="n">
-        <v>42.8534196615606</v>
+        <v>42.8534196624552</v>
       </c>
       <c r="J82" t="n">
-        <v>42.8763187812993</v>
+        <v>42.8763187821926</v>
       </c>
       <c r="K82" t="n">
-        <v>-6.67805040841667</v>
+        <v>-6.67805040832038</v>
       </c>
     </row>
     <row r="83">
@@ -3538,31 +3538,31 @@
         <v>93</v>
       </c>
       <c r="C83" t="n">
-        <v>45.9445167711823</v>
+        <v>45.9445167720921</v>
       </c>
       <c r="D83" t="n">
-        <v>43.8372312462748</v>
+        <v>43.8372312471555</v>
       </c>
       <c r="E83" t="n">
-        <v>43.2283375717291</v>
+        <v>43.2283375726126</v>
       </c>
       <c r="F83" t="n">
-        <v>43.2267974156035</v>
+        <v>43.2267974164934</v>
       </c>
       <c r="G83" t="n">
-        <v>42.748706616094</v>
+        <v>42.7487066169823</v>
       </c>
       <c r="H83" t="n">
-        <v>42.4839523741095</v>
+        <v>42.483952375</v>
       </c>
       <c r="I83" t="n">
-        <v>42.8534196615606</v>
+        <v>42.8534196624552</v>
       </c>
       <c r="J83" t="n">
-        <v>42.8763187812993</v>
+        <v>42.8763187821926</v>
       </c>
       <c r="K83" t="n">
-        <v>-6.67805040841667</v>
+        <v>-6.67805040832038</v>
       </c>
     </row>
     <row r="84">
@@ -3573,31 +3573,31 @@
         <v>94</v>
       </c>
       <c r="C84" t="n">
-        <v>56.2371492892784</v>
+        <v>56.2371492895885</v>
       </c>
       <c r="D84" t="n">
-        <v>55.3699634714509</v>
+        <v>55.3699634717963</v>
       </c>
       <c r="E84" t="n">
-        <v>54.7550723705861</v>
+        <v>54.7550723709405</v>
       </c>
       <c r="F84" t="n">
-        <v>54.4519693122017</v>
+        <v>54.4519693125541</v>
       </c>
       <c r="G84" t="n">
-        <v>54.8554517835672</v>
+        <v>54.8554517839168</v>
       </c>
       <c r="H84" t="n">
-        <v>54.7414757167776</v>
+        <v>54.7414757171255</v>
       </c>
       <c r="I84" t="n">
-        <v>54.8920147108643</v>
+        <v>54.892014711214</v>
       </c>
       <c r="J84" t="n">
-        <v>54.9160468228629</v>
+        <v>54.9160468232124</v>
       </c>
       <c r="K84" t="n">
-        <v>-2.34916328994522</v>
+        <v>-2.34916328986224</v>
       </c>
     </row>
     <row r="85">
@@ -3608,31 +3608,31 @@
         <v>95</v>
       </c>
       <c r="C85" t="n">
-        <v>56.3140742091727</v>
+        <v>56.3140742094833</v>
       </c>
       <c r="D85" t="n">
-        <v>55.441398812781</v>
+        <v>55.4413988131269</v>
       </c>
       <c r="E85" t="n">
-        <v>54.8248043834265</v>
+        <v>54.8248043837813</v>
       </c>
       <c r="F85" t="n">
-        <v>54.5188937258967</v>
+        <v>54.5188937262497</v>
       </c>
       <c r="G85" t="n">
-        <v>54.9212785132647</v>
+        <v>54.9212785136148</v>
       </c>
       <c r="H85" t="n">
-        <v>54.8058163143024</v>
+        <v>54.8058163146507</v>
       </c>
       <c r="I85" t="n">
-        <v>54.9541317284591</v>
+        <v>54.9541317288092</v>
       </c>
       <c r="J85" t="n">
-        <v>54.9767056798491</v>
+        <v>54.976705680199</v>
       </c>
       <c r="K85" t="n">
-        <v>-2.37483888016367</v>
+        <v>-2.37483888008069</v>
       </c>
     </row>
     <row r="86">
@@ -3643,31 +3643,31 @@
         <v>96</v>
       </c>
       <c r="C86" t="n">
-        <v>56.2371492892784</v>
+        <v>56.2371492895885</v>
       </c>
       <c r="D86" t="n">
-        <v>55.3699634714509</v>
+        <v>55.3699634717963</v>
       </c>
       <c r="E86" t="n">
-        <v>54.7550723705861</v>
+        <v>54.7550723709405</v>
       </c>
       <c r="F86" t="n">
-        <v>54.4519693122017</v>
+        <v>54.4519693125541</v>
       </c>
       <c r="G86" t="n">
-        <v>54.8554517835672</v>
+        <v>54.8554517839168</v>
       </c>
       <c r="H86" t="n">
-        <v>54.7414757167776</v>
+        <v>54.7414757171255</v>
       </c>
       <c r="I86" t="n">
-        <v>54.8920147108643</v>
+        <v>54.892014711214</v>
       </c>
       <c r="J86" t="n">
-        <v>54.9160468228629</v>
+        <v>54.9160468232124</v>
       </c>
       <c r="K86" t="n">
-        <v>-2.34916328994522</v>
+        <v>-2.34916328986224</v>
       </c>
     </row>
     <row r="87">
@@ -3678,31 +3678,31 @@
         <v>97</v>
       </c>
       <c r="C87" t="n">
-        <v>33.4368162568614</v>
+        <v>33.4368162572229</v>
       </c>
       <c r="D87" t="n">
-        <v>32.0915687145268</v>
+        <v>32.091568714844</v>
       </c>
       <c r="E87" t="n">
-        <v>31.6099458443815</v>
+        <v>31.6099458446898</v>
       </c>
       <c r="F87" t="n">
-        <v>31.4449076847897</v>
+        <v>31.4449076850988</v>
       </c>
       <c r="G87" t="n">
-        <v>30.5069891309434</v>
+        <v>30.506989131251</v>
       </c>
       <c r="H87" t="n">
-        <v>30.0952657662013</v>
+        <v>30.0952657665111</v>
       </c>
       <c r="I87" t="n">
-        <v>30.401096456408</v>
+        <v>30.4010964567183</v>
       </c>
       <c r="J87" t="n">
-        <v>30.4084564495805</v>
+        <v>30.4084564498906</v>
       </c>
       <c r="K87" t="n">
-        <v>-9.05696219405897</v>
+        <v>-9.05696219411465</v>
       </c>
     </row>
     <row r="88">
@@ -3713,31 +3713,31 @@
         <v>98</v>
       </c>
       <c r="C88" t="n">
-        <v>41.6049219842208</v>
+        <v>41.6049219847567</v>
       </c>
       <c r="D88" t="n">
-        <v>40.3435242602116</v>
+        <v>40.3435242607303</v>
       </c>
       <c r="E88" t="n">
-        <v>39.8550637170778</v>
+        <v>39.8550637175873</v>
       </c>
       <c r="F88" t="n">
-        <v>39.7960825013403</v>
+        <v>39.7960825018518</v>
       </c>
       <c r="G88" t="n">
-        <v>39.2511070430966</v>
+        <v>39.2511070436066</v>
       </c>
       <c r="H88" t="n">
-        <v>39.0521857792647</v>
+        <v>39.0521857797761</v>
       </c>
       <c r="I88" t="n">
-        <v>39.3127334607195</v>
+        <v>39.3127334612328</v>
       </c>
       <c r="J88" t="n">
-        <v>39.3897789956774</v>
+        <v>39.3897789961903</v>
       </c>
       <c r="K88" t="n">
-        <v>-5.32423300633416</v>
+        <v>-5.3242330063206</v>
       </c>
     </row>
   </sheetData>
@@ -16173,31 +16173,31 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>66.260935825897</v>
+        <v>66.2609358260388</v>
       </c>
       <c r="D2" t="n">
-        <v>67.0060218401221</v>
+        <v>67.0060218402303</v>
       </c>
       <c r="E2" t="n">
-        <v>65.7620535486471</v>
+        <v>65.7620535487532</v>
       </c>
       <c r="F2" t="n">
-        <v>67.0551902122688</v>
+        <v>67.0551902123755</v>
       </c>
       <c r="G2" t="n">
-        <v>70.1930565956028</v>
+        <v>70.1930565957116</v>
       </c>
       <c r="H2" t="n">
-        <v>69.7799869436354</v>
+        <v>69.7799869437419</v>
       </c>
       <c r="I2" t="n">
-        <v>72.1386322309994</v>
+        <v>72.1386322311099</v>
       </c>
       <c r="J2" t="n">
-        <v>72.1399762198429</v>
+        <v>72.1399762199527</v>
       </c>
       <c r="K2" t="n">
-        <v>8.87255865113836</v>
+        <v>8.87255865107115</v>
       </c>
     </row>
     <row r="3">
@@ -16208,31 +16208,31 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>64.5329260635022</v>
+        <v>64.5329260643968</v>
       </c>
       <c r="D3" t="n">
-        <v>61.8702791960364</v>
+        <v>61.8702791967401</v>
       </c>
       <c r="E3" t="n">
-        <v>61.7563419736904</v>
+        <v>61.7563419744093</v>
       </c>
       <c r="F3" t="n">
-        <v>63.5725428660904</v>
+        <v>63.5725428668129</v>
       </c>
       <c r="G3" t="n">
-        <v>62.6545106651112</v>
+        <v>62.6545106658332</v>
       </c>
       <c r="H3" t="n">
-        <v>61.3241961415745</v>
+        <v>61.324196142294</v>
       </c>
       <c r="I3" t="n">
-        <v>62.1559556675666</v>
+        <v>62.1559556682873</v>
       </c>
       <c r="J3" t="n">
-        <v>62.1844525271868</v>
+        <v>62.1844525279084</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.63918650458294</v>
+        <v>-3.63918650480052</v>
       </c>
     </row>
     <row r="4">
@@ -16243,31 +16243,31 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>45.9579031681798</v>
+        <v>45.9579031688913</v>
       </c>
       <c r="D4" t="n">
-        <v>48.2880431941583</v>
+        <v>48.2880431950397</v>
       </c>
       <c r="E4" t="n">
-        <v>47.3274099413795</v>
+        <v>47.3274099421091</v>
       </c>
       <c r="F4" t="n">
-        <v>46.8651109100485</v>
+        <v>46.8651109107807</v>
       </c>
       <c r="G4" t="n">
-        <v>47.5494110617317</v>
+        <v>47.5494110624671</v>
       </c>
       <c r="H4" t="n">
-        <v>46.9182306345983</v>
+        <v>46.9182306353342</v>
       </c>
       <c r="I4" t="n">
-        <v>47.7246661309025</v>
+        <v>47.7246661316429</v>
       </c>
       <c r="J4" t="n">
-        <v>47.8127807308877</v>
+        <v>47.8127807316312</v>
       </c>
       <c r="K4" t="n">
-        <v>4.03603610008074</v>
+        <v>4.03603610008794</v>
       </c>
     </row>
     <row r="5">
@@ -16278,31 +16278,31 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>59.8512007861482</v>
+        <v>59.8512007869627</v>
       </c>
       <c r="D5" t="n">
-        <v>57.6277442281876</v>
+        <v>57.6277442285899</v>
       </c>
       <c r="E5" t="n">
-        <v>57.7873101902923</v>
+        <v>57.7873101907133</v>
       </c>
       <c r="F5" t="n">
-        <v>57.5096898615017</v>
+        <v>57.5096898619223</v>
       </c>
       <c r="G5" t="n">
-        <v>55.4045824340625</v>
+        <v>55.4045824344795</v>
       </c>
       <c r="H5" t="n">
-        <v>55.2867290538395</v>
+        <v>55.2867290542561</v>
       </c>
       <c r="I5" t="n">
-        <v>56.1409471507301</v>
+        <v>56.1409471511483</v>
       </c>
       <c r="J5" t="n">
-        <v>56.140315685592</v>
+        <v>56.1403156860104</v>
       </c>
       <c r="K5" t="n">
-        <v>-6.2001848781871</v>
+        <v>-6.2001848787646</v>
       </c>
     </row>
     <row r="6">
@@ -16313,31 +16313,31 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>48.339237917452</v>
+        <v>48.3392379177771</v>
       </c>
       <c r="D6" t="n">
-        <v>47.2231323032196</v>
+        <v>47.2231323039491</v>
       </c>
       <c r="E6" t="n">
-        <v>46.5135025800847</v>
+        <v>46.5135025805928</v>
       </c>
       <c r="F6" t="n">
-        <v>47.4981512211146</v>
+        <v>47.4981512216251</v>
       </c>
       <c r="G6" t="n">
-        <v>48.7813197313332</v>
+        <v>48.7813197318452</v>
       </c>
       <c r="H6" t="n">
-        <v>49.3423335146624</v>
+        <v>49.3423335151746</v>
       </c>
       <c r="I6" t="n">
-        <v>50.6703600205015</v>
+        <v>50.6703600210151</v>
       </c>
       <c r="J6" t="n">
-        <v>50.7241180821681</v>
+        <v>50.7241180826819</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9336321122579</v>
+        <v>4.93363211261488</v>
       </c>
     </row>
     <row r="7">
@@ -16348,31 +16348,31 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2667303572786</v>
+        <v>51.2667303579402</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2722843305308</v>
+        <v>51.2722843312132</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7576879634054</v>
+        <v>50.7576879639789</v>
       </c>
       <c r="F7" t="n">
-        <v>50.6867050463092</v>
+        <v>50.6867050468839</v>
       </c>
       <c r="G7" t="n">
-        <v>50.5444416153085</v>
+        <v>50.5444416158833</v>
       </c>
       <c r="H7" t="n">
-        <v>50.3642606398716</v>
+        <v>50.3642606404461</v>
       </c>
       <c r="I7" t="n">
-        <v>51.3099077127588</v>
+        <v>51.3099077133358</v>
       </c>
       <c r="J7" t="n">
-        <v>51.3630105003607</v>
+        <v>51.3630105009388</v>
       </c>
       <c r="K7" t="n">
-        <v>0.187802386481639</v>
+        <v>0.18780238631626</v>
       </c>
     </row>
     <row r="8">
@@ -16383,31 +16383,31 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>60.2077125166826</v>
+        <v>60.2077125171607</v>
       </c>
       <c r="D8" t="n">
-        <v>62.8642006507065</v>
+        <v>62.8642006511708</v>
       </c>
       <c r="E8" t="n">
-        <v>61.4771984202026</v>
+        <v>61.4771984206614</v>
       </c>
       <c r="F8" t="n">
-        <v>62.0512560868008</v>
+        <v>62.051256087258</v>
       </c>
       <c r="G8" t="n">
-        <v>62.0153930544484</v>
+        <v>62.015393054903</v>
       </c>
       <c r="H8" t="n">
-        <v>60.3208123444701</v>
+        <v>60.3208123449177</v>
       </c>
       <c r="I8" t="n">
-        <v>61.1520603162572</v>
+        <v>61.1520603167039</v>
       </c>
       <c r="J8" t="n">
-        <v>61.1698326184402</v>
+        <v>61.1698326188854</v>
       </c>
       <c r="K8" t="n">
-        <v>1.59800142131459</v>
+        <v>1.59800142124729</v>
       </c>
     </row>
     <row r="9">
@@ -16418,31 +16418,31 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>75.6083783996086</v>
+        <v>75.6083784002398</v>
       </c>
       <c r="D9" t="n">
-        <v>76.2099953102369</v>
+        <v>76.2099953108658</v>
       </c>
       <c r="E9" t="n">
-        <v>76.4481828945271</v>
+        <v>76.4481828951533</v>
       </c>
       <c r="F9" t="n">
-        <v>78.0965267729677</v>
+        <v>78.0965267735937</v>
       </c>
       <c r="G9" t="n">
-        <v>77.4742418476545</v>
+        <v>77.4742418482748</v>
       </c>
       <c r="H9" t="n">
-        <v>77.3528062880333</v>
+        <v>77.3528062886488</v>
       </c>
       <c r="I9" t="n">
-        <v>78.0132364034811</v>
+        <v>78.0132364040942</v>
       </c>
       <c r="J9" t="n">
-        <v>78.0022922408378</v>
+        <v>78.0022922414475</v>
       </c>
       <c r="K9" t="n">
-        <v>3.16620180448359</v>
+        <v>3.16620180442884</v>
       </c>
     </row>
     <row r="10">
@@ -16453,31 +16453,31 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>33.2175465868668</v>
+        <v>33.2175465883021</v>
       </c>
       <c r="D10" t="n">
-        <v>30.4274706074689</v>
+        <v>30.4274706090273</v>
       </c>
       <c r="E10" t="n">
-        <v>31.1698105469691</v>
+        <v>31.1698105485057</v>
       </c>
       <c r="F10" t="n">
-        <v>33.27895898118</v>
+        <v>33.278958982721</v>
       </c>
       <c r="G10" t="n">
-        <v>33.4449563204031</v>
+        <v>33.4449563219449</v>
       </c>
       <c r="H10" t="n">
-        <v>35.1926958612295</v>
+        <v>35.1926958627729</v>
       </c>
       <c r="I10" t="n">
-        <v>35.9667719399875</v>
+        <v>35.9667719415319</v>
       </c>
       <c r="J10" t="n">
-        <v>35.961091847457</v>
+        <v>35.9610918490016</v>
       </c>
       <c r="K10" t="n">
-        <v>8.25932539423291</v>
+        <v>8.25932539420506</v>
       </c>
     </row>
     <row r="11">
@@ -16488,31 +16488,31 @@
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>58.9866114584995</v>
+        <v>58.9866114591445</v>
       </c>
       <c r="D11" t="n">
-        <v>59.6422818323537</v>
+        <v>59.6422818328133</v>
       </c>
       <c r="E11" t="n">
-        <v>59.1317443654419</v>
+        <v>59.131744365906</v>
       </c>
       <c r="F11" t="n">
-        <v>59.2738471848374</v>
+        <v>59.2738471853019</v>
       </c>
       <c r="G11" t="n">
-        <v>58.9790941423901</v>
+        <v>58.9790941428537</v>
       </c>
       <c r="H11" t="n">
-        <v>58.458751127336</v>
+        <v>58.4587511277974</v>
       </c>
       <c r="I11" t="n">
-        <v>59.4213497157819</v>
+        <v>59.421349716245</v>
       </c>
       <c r="J11" t="n">
-        <v>59.4050660153187</v>
+        <v>59.4050660157822</v>
       </c>
       <c r="K11" t="n">
-        <v>0.70940599311009</v>
+        <v>0.709405992794632</v>
       </c>
     </row>
     <row r="12">
@@ -16523,31 +16523,31 @@
         <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>5.23824315959601</v>
+        <v>5.23824316146849</v>
       </c>
       <c r="D12" t="n">
-        <v>5.65900174672169</v>
+        <v>5.6590017473392</v>
       </c>
       <c r="E12" t="n">
-        <v>4.29879622256849</v>
+        <v>4.29879622425272</v>
       </c>
       <c r="F12" t="n">
-        <v>1.38651122744662</v>
+        <v>1.38651122913191</v>
       </c>
       <c r="G12" t="n">
-        <v>3.06813763543767</v>
+        <v>3.06813763712698</v>
       </c>
       <c r="H12" t="n">
-        <v>3.34483773710167</v>
+        <v>3.34483773879378</v>
       </c>
       <c r="I12" t="n">
-        <v>3.33742854551886</v>
+        <v>3.33742854721261</v>
       </c>
       <c r="J12" t="n">
-        <v>3.33672209425537</v>
+        <v>3.33672209595171</v>
       </c>
       <c r="K12" t="n">
-        <v>-36.3007406759501</v>
+        <v>-36.3007406663364</v>
       </c>
     </row>
     <row r="13">
@@ -16558,31 +16558,31 @@
         <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>58.8163216809676</v>
+        <v>58.8163216813245</v>
       </c>
       <c r="D13" t="n">
-        <v>54.8661870643604</v>
+        <v>54.8661870647063</v>
       </c>
       <c r="E13" t="n">
-        <v>54.8730725065655</v>
+        <v>54.8730725069094</v>
       </c>
       <c r="F13" t="n">
-        <v>55.321479165356</v>
+        <v>55.3214791657005</v>
       </c>
       <c r="G13" t="n">
-        <v>53.0906812655178</v>
+        <v>53.0906812658563</v>
       </c>
       <c r="H13" t="n">
-        <v>52.5555839835024</v>
+        <v>52.5555839838362</v>
       </c>
       <c r="I13" t="n">
-        <v>52.9659109917314</v>
+        <v>52.9659109920639</v>
       </c>
       <c r="J13" t="n">
-        <v>52.9181993347309</v>
+        <v>52.9181993350622</v>
       </c>
       <c r="K13" t="n">
-        <v>-10.0280367382193</v>
+        <v>-10.028036738202</v>
       </c>
     </row>
     <row r="14">
@@ -16593,31 +16593,31 @@
         <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>73.396981027188</v>
+        <v>73.3969810284793</v>
       </c>
       <c r="D14" t="n">
-        <v>74.6292079240009</v>
+        <v>74.6292079252922</v>
       </c>
       <c r="E14" t="n">
-        <v>74.0946561153985</v>
+        <v>74.0946561166894</v>
       </c>
       <c r="F14" t="n">
-        <v>72.5005712880322</v>
+        <v>72.5005712893212</v>
       </c>
       <c r="G14" t="n">
-        <v>71.0383291888093</v>
+        <v>71.0383291900928</v>
       </c>
       <c r="H14" t="n">
-        <v>67.0332980762934</v>
+        <v>67.0332980775662</v>
       </c>
       <c r="I14" t="n">
-        <v>66.4263809128776</v>
+        <v>66.426380914153</v>
       </c>
       <c r="J14" t="n">
-        <v>66.4261712884038</v>
+        <v>66.4261712896796</v>
       </c>
       <c r="K14" t="n">
-        <v>-9.49740662521534</v>
+        <v>-9.49740662506934</v>
       </c>
     </row>
     <row r="15">
@@ -16628,31 +16628,31 @@
         <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>46.1757569619549</v>
+        <v>46.1757569624891</v>
       </c>
       <c r="D15" t="n">
-        <v>47.7064139420884</v>
+        <v>47.7064139425783</v>
       </c>
       <c r="E15" t="n">
-        <v>47.5012465893307</v>
+        <v>47.5012465897158</v>
       </c>
       <c r="F15" t="n">
-        <v>47.7527317161342</v>
+        <v>47.7527317165195</v>
       </c>
       <c r="G15" t="n">
-        <v>48.1541303726845</v>
+        <v>48.1541303730696</v>
       </c>
       <c r="H15" t="n">
-        <v>48.1241762640745</v>
+        <v>48.1241762644582</v>
       </c>
       <c r="I15" t="n">
-        <v>48.8241817791143</v>
+        <v>48.8241817794977</v>
       </c>
       <c r="J15" t="n">
-        <v>48.8347449014686</v>
+        <v>48.8347449018518</v>
       </c>
       <c r="K15" t="n">
-        <v>5.75840682309658</v>
+        <v>5.75840682270292</v>
       </c>
     </row>
     <row r="16">
@@ -16663,31 +16663,31 @@
         <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>45.3972487554468</v>
+        <v>45.3972487570204</v>
       </c>
       <c r="D16" t="n">
-        <v>43.5326433065775</v>
+        <v>43.5326433080543</v>
       </c>
       <c r="E16" t="n">
-        <v>44.5517022526697</v>
+        <v>44.5517022541157</v>
       </c>
       <c r="F16" t="n">
-        <v>46.8818073340686</v>
+        <v>46.8818073355131</v>
       </c>
       <c r="G16" t="n">
-        <v>46.9637224904753</v>
+        <v>46.9637224919155</v>
       </c>
       <c r="H16" t="n">
-        <v>47.9698204767027</v>
+        <v>47.9698204781377</v>
       </c>
       <c r="I16" t="n">
-        <v>48.9863090734851</v>
+        <v>48.9863090749168</v>
       </c>
       <c r="J16" t="n">
-        <v>49.0416430031956</v>
+        <v>49.0416430046227</v>
       </c>
       <c r="K16" t="n">
-        <v>8.02778658984606</v>
+        <v>8.02778658924506</v>
       </c>
     </row>
     <row r="17">
@@ -16698,31 +16698,31 @@
         <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>52.235611150118</v>
+        <v>52.2356111499921</v>
       </c>
       <c r="D17" t="n">
-        <v>46.9579684833117</v>
+        <v>46.9579684834913</v>
       </c>
       <c r="E17" t="n">
-        <v>46.1698032733186</v>
+        <v>46.1698032735251</v>
       </c>
       <c r="F17" t="n">
-        <v>44.996993102503</v>
+        <v>44.9969931027102</v>
       </c>
       <c r="G17" t="n">
-        <v>43.6536849502604</v>
+        <v>43.6536849504662</v>
       </c>
       <c r="H17" t="n">
-        <v>43.2405856976326</v>
+        <v>43.2405856978372</v>
       </c>
       <c r="I17" t="n">
-        <v>43.9243982250283</v>
+        <v>43.9243982252343</v>
       </c>
       <c r="J17" t="n">
-        <v>43.9222386534634</v>
+        <v>43.9222386536708</v>
       </c>
       <c r="K17" t="n">
-        <v>-15.9151435459674</v>
+        <v>-15.9151435453676</v>
       </c>
     </row>
     <row r="18">
@@ -16733,31 +16733,31 @@
         <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>63.9926571211956</v>
+        <v>63.9926571221309</v>
       </c>
       <c r="D18" t="n">
-        <v>65.1596193001245</v>
+        <v>65.1596193010487</v>
       </c>
       <c r="E18" t="n">
-        <v>63.7103318288555</v>
+        <v>63.7103318297676</v>
       </c>
       <c r="F18" t="n">
-        <v>66.5214541995553</v>
+        <v>66.5214542004724</v>
       </c>
       <c r="G18" t="n">
-        <v>64.1984055978136</v>
+        <v>64.1984055987248</v>
       </c>
       <c r="H18" t="n">
-        <v>61.8231012121565</v>
+        <v>61.8231012130631</v>
       </c>
       <c r="I18" t="n">
-        <v>63.1028775784421</v>
+        <v>63.1028775793541</v>
       </c>
       <c r="J18" t="n">
-        <v>63.1034069989803</v>
+        <v>63.1034069998956</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.38961274968026</v>
+        <v>-1.38961274969114</v>
       </c>
     </row>
     <row r="19">
@@ -16768,31 +16768,31 @@
         <v>29</v>
       </c>
       <c r="C19" t="n">
-        <v>43.9212784635403</v>
+        <v>43.9212784652477</v>
       </c>
       <c r="D19" t="n">
-        <v>42.278239638673</v>
+        <v>42.2782396402749</v>
       </c>
       <c r="E19" t="n">
-        <v>43.401995730327</v>
+        <v>43.4019957318958</v>
       </c>
       <c r="F19" t="n">
-        <v>45.9351577133792</v>
+        <v>45.9351577149471</v>
       </c>
       <c r="G19" t="n">
-        <v>46.2713145141967</v>
+        <v>46.2713145157614</v>
       </c>
       <c r="H19" t="n">
-        <v>47.4474237901572</v>
+        <v>47.4474237917177</v>
       </c>
       <c r="I19" t="n">
-        <v>48.5289924124235</v>
+        <v>48.5289924139815</v>
       </c>
       <c r="J19" t="n">
-        <v>48.5918271139546</v>
+        <v>48.5918271155088</v>
       </c>
       <c r="K19" t="n">
-        <v>10.6339086971054</v>
+        <v>10.6339086963432</v>
       </c>
     </row>
     <row r="20">
@@ -16803,31 +16803,31 @@
         <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>40.4213797724012</v>
+        <v>40.4213797742911</v>
       </c>
       <c r="D20" t="n">
-        <v>40.8753833761298</v>
+        <v>40.875383377961</v>
       </c>
       <c r="E20" t="n">
-        <v>40.6983732026853</v>
+        <v>40.6983732046016</v>
       </c>
       <c r="F20" t="n">
-        <v>40.4703092888818</v>
+        <v>40.4703092908002</v>
       </c>
       <c r="G20" t="n">
-        <v>39.3024482876569</v>
+        <v>39.3024482895745</v>
       </c>
       <c r="H20" t="n">
-        <v>39.8111796231082</v>
+        <v>39.8111796250287</v>
       </c>
       <c r="I20" t="n">
-        <v>40.1411225347371</v>
+        <v>40.1411225366583</v>
       </c>
       <c r="J20" t="n">
-        <v>40.1924793485074</v>
+        <v>40.19247935043</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.566285528061194</v>
+        <v>-0.566285527953958</v>
       </c>
     </row>
     <row r="21">
@@ -16838,31 +16838,31 @@
         <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>41.8007473948585</v>
+        <v>41.8007473961127</v>
       </c>
       <c r="D21" t="n">
-        <v>40.1241066030121</v>
+        <v>40.1241066043587</v>
       </c>
       <c r="E21" t="n">
-        <v>40.0552790737105</v>
+        <v>40.0552790749747</v>
       </c>
       <c r="F21" t="n">
-        <v>41.8774663389733</v>
+        <v>41.8774663402363</v>
       </c>
       <c r="G21" t="n">
-        <v>42.4065635631968</v>
+        <v>42.4065635644574</v>
       </c>
       <c r="H21" t="n">
-        <v>43.2845617897149</v>
+        <v>43.284561790972</v>
       </c>
       <c r="I21" t="n">
-        <v>44.7326419993767</v>
+        <v>44.7326420006324</v>
       </c>
       <c r="J21" t="n">
-        <v>44.796750900865</v>
+        <v>44.7967509021174</v>
       </c>
       <c r="K21" t="n">
-        <v>7.16734434842901</v>
+        <v>7.16734434820978</v>
       </c>
     </row>
     <row r="22">
@@ -16873,31 +16873,31 @@
         <v>32</v>
       </c>
       <c r="C22" t="n">
-        <v>44.9063572610158</v>
+        <v>44.9063572622069</v>
       </c>
       <c r="D22" t="n">
-        <v>42.0614381874579</v>
+        <v>42.061438188664</v>
       </c>
       <c r="E22" t="n">
-        <v>42.4858783505213</v>
+        <v>42.4858783516986</v>
       </c>
       <c r="F22" t="n">
-        <v>44.5939307837203</v>
+        <v>44.5939307849028</v>
       </c>
       <c r="G22" t="n">
-        <v>44.2912774308386</v>
+        <v>44.2912774320224</v>
       </c>
       <c r="H22" t="n">
-        <v>44.6639533001566</v>
+        <v>44.6639533013414</v>
       </c>
       <c r="I22" t="n">
-        <v>45.3621230925713</v>
+        <v>45.3621230937577</v>
       </c>
       <c r="J22" t="n">
-        <v>45.3386012154531</v>
+        <v>45.338601216641</v>
       </c>
       <c r="K22" t="n">
-        <v>0.962545129022407</v>
+        <v>0.962545128989722</v>
       </c>
     </row>
     <row r="23">
@@ -16908,31 +16908,31 @@
         <v>33</v>
       </c>
       <c r="C23" t="n">
-        <v>57.1204377563869</v>
+        <v>57.1204377579196</v>
       </c>
       <c r="D23" t="n">
-        <v>56.6071599250685</v>
+        <v>56.6071599260113</v>
       </c>
       <c r="E23" t="n">
-        <v>55.5909461416454</v>
+        <v>55.5909461422885</v>
       </c>
       <c r="F23" t="n">
-        <v>54.5447368658522</v>
+        <v>54.5447368664871</v>
       </c>
       <c r="G23" t="n">
-        <v>54.0738440049381</v>
+        <v>54.0738440055674</v>
       </c>
       <c r="H23" t="n">
-        <v>54.1356421254417</v>
+        <v>54.1356421260656</v>
       </c>
       <c r="I23" t="n">
-        <v>54.426449855461</v>
+        <v>54.4264498560826</v>
       </c>
       <c r="J23" t="n">
-        <v>54.463312940581</v>
+        <v>54.463312941198</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.65179350889828</v>
+        <v>-4.65179351037652</v>
       </c>
     </row>
     <row r="24">
@@ -16943,31 +16943,31 @@
         <v>34</v>
       </c>
       <c r="C24" t="n">
-        <v>48.5537100463609</v>
+        <v>48.5537100474105</v>
       </c>
       <c r="D24" t="n">
-        <v>46.6564076752622</v>
+        <v>46.6564076762732</v>
       </c>
       <c r="E24" t="n">
-        <v>46.8753090767019</v>
+        <v>46.8753090776911</v>
       </c>
       <c r="F24" t="n">
-        <v>48.4993104712612</v>
+        <v>48.4993104722527</v>
       </c>
       <c r="G24" t="n">
-        <v>48.2331484431846</v>
+        <v>48.2331484441752</v>
       </c>
       <c r="H24" t="n">
-        <v>48.3986197946849</v>
+        <v>48.3986197956739</v>
       </c>
       <c r="I24" t="n">
-        <v>49.2021363995296</v>
+        <v>49.2021364005184</v>
       </c>
       <c r="J24" t="n">
-        <v>49.2156958996836</v>
+        <v>49.2156959006718</v>
       </c>
       <c r="K24" t="n">
-        <v>1.3634094133911</v>
+        <v>1.36340941323518</v>
       </c>
     </row>
     <row r="25">
@@ -16978,31 +16978,31 @@
         <v>35</v>
       </c>
       <c r="C25" t="n">
-        <v>48.6474774050547</v>
+        <v>48.6474774067622</v>
       </c>
       <c r="D25" t="n">
-        <v>48.7712550603693</v>
+        <v>48.7712550616541</v>
       </c>
       <c r="E25" t="n">
-        <v>48.1969523735938</v>
+        <v>48.1969523744803</v>
       </c>
       <c r="F25" t="n">
-        <v>48.8209320011345</v>
+        <v>48.8209320020223</v>
       </c>
       <c r="G25" t="n">
-        <v>49.6488105954079</v>
+        <v>49.6488105962961</v>
       </c>
       <c r="H25" t="n">
-        <v>49.9676635642841</v>
+        <v>49.9676635651751</v>
       </c>
       <c r="I25" t="n">
-        <v>48.4914504857552</v>
+        <v>48.4914504866408</v>
       </c>
       <c r="J25" t="n">
-        <v>48.5216564564692</v>
+        <v>48.5216564573546</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.258638176729764</v>
+        <v>-0.258638178410653</v>
       </c>
     </row>
     <row r="26">
@@ -17013,31 +17013,31 @@
         <v>36</v>
       </c>
       <c r="C26" t="n">
-        <v>42.7089178224585</v>
+        <v>42.7089178230544</v>
       </c>
       <c r="D26" t="n">
-        <v>42.6977677305202</v>
+        <v>42.6977677304074</v>
       </c>
       <c r="E26" t="n">
-        <v>42.9926336822287</v>
+        <v>42.9926336841691</v>
       </c>
       <c r="F26" t="n">
-        <v>41.7495335686783</v>
+        <v>41.749533570614</v>
       </c>
       <c r="G26" t="n">
-        <v>41.7570698227428</v>
+        <v>41.7570698246758</v>
       </c>
       <c r="H26" t="n">
-        <v>41.6111441488661</v>
+        <v>41.6111441507961</v>
       </c>
       <c r="I26" t="n">
-        <v>41.0929704713497</v>
+        <v>41.0929704732787</v>
       </c>
       <c r="J26" t="n">
-        <v>41.113027294798</v>
+        <v>41.1130272967245</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.73666814573641</v>
+        <v>-3.73666814256868</v>
       </c>
     </row>
     <row r="27">
@@ -17048,31 +17048,31 @@
         <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>60.5689888104306</v>
+        <v>60.56898881132</v>
       </c>
       <c r="D27" t="n">
-        <v>61.6848310586716</v>
+        <v>61.6848310595529</v>
       </c>
       <c r="E27" t="n">
-        <v>61.7238551873071</v>
+        <v>61.7238551881893</v>
       </c>
       <c r="F27" t="n">
-        <v>61.0226134333661</v>
+        <v>61.022613434248</v>
       </c>
       <c r="G27" t="n">
-        <v>61.5748407761975</v>
+        <v>61.5748407770788</v>
       </c>
       <c r="H27" t="n">
-        <v>59.7089089753624</v>
+        <v>59.7089089762395</v>
       </c>
       <c r="I27" t="n">
-        <v>61.8326269470279</v>
+        <v>61.8326269479095</v>
       </c>
       <c r="J27" t="n">
-        <v>61.8058363281618</v>
+        <v>61.805836329044</v>
       </c>
       <c r="K27" t="n">
-        <v>2.04204749331764</v>
+        <v>2.04204749327559</v>
       </c>
     </row>
     <row r="28">
@@ -17083,31 +17083,31 @@
         <v>38</v>
       </c>
       <c r="C28" t="n">
-        <v>30.2798980409869</v>
+        <v>30.2798980422293</v>
       </c>
       <c r="D28" t="n">
-        <v>35.5071723337915</v>
+        <v>35.5071723349769</v>
       </c>
       <c r="E28" t="n">
-        <v>39.5022416170476</v>
+        <v>39.5022416177712</v>
       </c>
       <c r="F28" t="n">
-        <v>39.5785500004964</v>
+        <v>39.5785500012462</v>
       </c>
       <c r="G28" t="n">
-        <v>44.3140236845974</v>
+        <v>44.3140236853538</v>
       </c>
       <c r="H28" t="n">
-        <v>46.9120440525871</v>
+        <v>46.912044053351</v>
       </c>
       <c r="I28" t="n">
-        <v>47.0975310192228</v>
+        <v>47.0975310199876</v>
       </c>
       <c r="J28" t="n">
-        <v>47.2964674027808</v>
+        <v>47.2964674035475</v>
       </c>
       <c r="K28" t="n">
-        <v>56.1975781383416</v>
+        <v>56.1975781344653</v>
       </c>
     </row>
     <row r="29">
@@ -17118,31 +17118,31 @@
         <v>39</v>
       </c>
       <c r="C29" t="n">
-        <v>57.037974510823</v>
+        <v>57.0379745114726</v>
       </c>
       <c r="D29" t="n">
-        <v>53.2187608284332</v>
+        <v>53.2187608290552</v>
       </c>
       <c r="E29" t="n">
-        <v>53.3968046638044</v>
+        <v>53.3968046643199</v>
       </c>
       <c r="F29" t="n">
-        <v>55.1918843421373</v>
+        <v>55.1918843426554</v>
       </c>
       <c r="G29" t="n">
-        <v>54.1937932476859</v>
+        <v>54.1937932482025</v>
       </c>
       <c r="H29" t="n">
-        <v>53.4862473633086</v>
+        <v>53.4862473638234</v>
       </c>
       <c r="I29" t="n">
-        <v>54.0353918424781</v>
+        <v>54.035391842992</v>
       </c>
       <c r="J29" t="n">
-        <v>53.9982339133872</v>
+        <v>53.9982339139008</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.32932773911706</v>
+        <v>-5.32932773929465</v>
       </c>
     </row>
     <row r="30">
@@ -17153,31 +17153,31 @@
         <v>40</v>
       </c>
       <c r="C30" t="n">
-        <v>58.5312748261467</v>
+        <v>58.5312748268517</v>
       </c>
       <c r="D30" t="n">
-        <v>58.6712365610684</v>
+        <v>58.6712365618349</v>
       </c>
       <c r="E30" t="n">
-        <v>58.213497899066</v>
+        <v>58.21349789984</v>
       </c>
       <c r="F30" t="n">
-        <v>58.1803353996243</v>
+        <v>58.1803354003983</v>
       </c>
       <c r="G30" t="n">
-        <v>58.6958750401755</v>
+        <v>58.6958750409495</v>
       </c>
       <c r="H30" t="n">
-        <v>58.6998241063388</v>
+        <v>58.699824107111</v>
       </c>
       <c r="I30" t="n">
-        <v>59.6026471335971</v>
+        <v>59.6026471343702</v>
       </c>
       <c r="J30" t="n">
-        <v>59.5990832049531</v>
+        <v>59.5990832057259</v>
       </c>
       <c r="K30" t="n">
-        <v>1.82433815422289</v>
+        <v>1.82433815431653</v>
       </c>
     </row>
     <row r="31">
@@ -17188,31 +17188,31 @@
         <v>41</v>
       </c>
       <c r="C31" t="n">
-        <v>39.6099283744251</v>
+        <v>39.609928375869</v>
       </c>
       <c r="D31" t="n">
-        <v>37.0572743059698</v>
+        <v>37.0572743074858</v>
       </c>
       <c r="E31" t="n">
-        <v>37.2797586737443</v>
+        <v>37.2797586751529</v>
       </c>
       <c r="F31" t="n">
-        <v>39.5415020962229</v>
+        <v>39.5415020976312</v>
       </c>
       <c r="G31" t="n">
-        <v>39.4084372907591</v>
+        <v>39.4084372921643</v>
       </c>
       <c r="H31" t="n">
-        <v>40.325531375835</v>
+        <v>40.3255313772364</v>
       </c>
       <c r="I31" t="n">
-        <v>41.5833033326776</v>
+        <v>41.5833033340769</v>
       </c>
       <c r="J31" t="n">
-        <v>41.6169222890018</v>
+        <v>41.6169222903978</v>
       </c>
       <c r="K31" t="n">
-        <v>5.06689609636501</v>
+        <v>5.06689609605946</v>
       </c>
     </row>
     <row r="32">
@@ -17223,31 +17223,31 @@
         <v>42</v>
       </c>
       <c r="C32" t="n">
-        <v>39.2240799515817</v>
+        <v>39.2240799534396</v>
       </c>
       <c r="D32" t="n">
-        <v>39.1147477324726</v>
+        <v>39.1147477343321</v>
       </c>
       <c r="E32" t="n">
-        <v>37.5456666648894</v>
+        <v>37.545666666749</v>
       </c>
       <c r="F32" t="n">
-        <v>37.7125308702161</v>
+        <v>37.7125308720778</v>
       </c>
       <c r="G32" t="n">
-        <v>37.2663805553464</v>
+        <v>37.2663805572095</v>
       </c>
       <c r="H32" t="n">
-        <v>40.9763545608737</v>
+        <v>40.9763545627443</v>
       </c>
       <c r="I32" t="n">
-        <v>41.1615547578437</v>
+        <v>41.1615547597154</v>
       </c>
       <c r="J32" t="n">
-        <v>41.1696997973764</v>
+        <v>41.1696997992485</v>
       </c>
       <c r="K32" t="n">
-        <v>4.96026891694177</v>
+        <v>4.96026891674299</v>
       </c>
     </row>
     <row r="33">
@@ -17258,31 +17258,31 @@
         <v>43</v>
       </c>
       <c r="C33" t="n">
-        <v>71.7571835098758</v>
+        <v>71.7571835100111</v>
       </c>
       <c r="D33" t="n">
-        <v>71.857477613177</v>
+        <v>71.8574776134274</v>
       </c>
       <c r="E33" t="n">
-        <v>70.5831409949947</v>
+        <v>70.5831409953567</v>
       </c>
       <c r="F33" t="n">
-        <v>71.4104198585513</v>
+        <v>71.410419858911</v>
       </c>
       <c r="G33" t="n">
-        <v>73.3463217847952</v>
+        <v>73.3463217851533</v>
       </c>
       <c r="H33" t="n">
-        <v>73.3203270398822</v>
+        <v>73.3203270402372</v>
       </c>
       <c r="I33" t="n">
-        <v>72.8855731312489</v>
+        <v>72.8855731316</v>
       </c>
       <c r="J33" t="n">
-        <v>72.8900692705041</v>
+        <v>72.8900692708526</v>
       </c>
       <c r="K33" t="n">
-        <v>1.5787767930892</v>
+        <v>1.57877679338325</v>
       </c>
     </row>
     <row r="34">
@@ -17293,31 +17293,31 @@
         <v>44</v>
       </c>
       <c r="C34" t="n">
-        <v>70.8305670596104</v>
+        <v>70.8305670610619</v>
       </c>
       <c r="D34" t="n">
-        <v>70.0563687065979</v>
+        <v>70.0563687067633</v>
       </c>
       <c r="E34" t="n">
-        <v>71.1419610489681</v>
+        <v>71.1419610491337</v>
       </c>
       <c r="F34" t="n">
-        <v>72.6383912026613</v>
+        <v>72.6383912028295</v>
       </c>
       <c r="G34" t="n">
-        <v>69.3255531796493</v>
+        <v>69.3255531798116</v>
       </c>
       <c r="H34" t="n">
-        <v>69.9923205565141</v>
+        <v>69.9923205566756</v>
       </c>
       <c r="I34" t="n">
-        <v>70.5135671469486</v>
+        <v>70.513567147112</v>
       </c>
       <c r="J34" t="n">
-        <v>70.5389661830007</v>
+        <v>70.5389661831653</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.411687903563274</v>
+        <v>-0.411687905371827</v>
       </c>
     </row>
     <row r="35">
@@ -17328,31 +17328,31 @@
         <v>45</v>
       </c>
       <c r="C35" t="n">
-        <v>51.6505210417796</v>
+        <v>51.6505210436068</v>
       </c>
       <c r="D35" t="n">
-        <v>58.3835334372578</v>
+        <v>58.3835334390948</v>
       </c>
       <c r="E35" t="n">
-        <v>57.9975732341424</v>
+        <v>57.9975732359789</v>
       </c>
       <c r="F35" t="n">
-        <v>60.0326532845697</v>
+        <v>60.0326532864084</v>
       </c>
       <c r="G35" t="n">
-        <v>59.028717433176</v>
+        <v>59.0287174350131</v>
       </c>
       <c r="H35" t="n">
-        <v>56.5546487702983</v>
+        <v>56.5546487721288</v>
       </c>
       <c r="I35" t="n">
-        <v>55.5387049944671</v>
+        <v>55.5387049962956</v>
       </c>
       <c r="J35" t="n">
-        <v>55.5934966187893</v>
+        <v>55.5934966206184</v>
       </c>
       <c r="K35" t="n">
-        <v>7.63395121187682</v>
+        <v>7.63395121161048</v>
       </c>
     </row>
     <row r="36">
@@ -17363,31 +17363,31 @@
         <v>46</v>
       </c>
       <c r="C36" t="n">
-        <v>76.9058623110887</v>
+        <v>76.90586231143</v>
       </c>
       <c r="D36" t="n">
-        <v>79.6438371101965</v>
+        <v>79.6438371105341</v>
       </c>
       <c r="E36" t="n">
-        <v>78.7115540677683</v>
+        <v>78.7115540681022</v>
       </c>
       <c r="F36" t="n">
-        <v>78.6007959567418</v>
+        <v>78.6007959570727</v>
       </c>
       <c r="G36" t="n">
-        <v>78.8362280059946</v>
+        <v>78.8362280063232</v>
       </c>
       <c r="H36" t="n">
-        <v>76.5492961221804</v>
+        <v>76.5492961225042</v>
       </c>
       <c r="I36" t="n">
-        <v>77.6809002045804</v>
+        <v>77.6809002049038</v>
       </c>
       <c r="J36" t="n">
-        <v>77.6272163282837</v>
+        <v>77.6272163286045</v>
       </c>
       <c r="K36" t="n">
-        <v>0.937970130647581</v>
+        <v>0.937970130616783</v>
       </c>
     </row>
     <row r="37">
@@ -17398,31 +17398,31 @@
         <v>47</v>
       </c>
       <c r="C37" t="n">
-        <v>13.9612693902101</v>
+        <v>13.9612693910819</v>
       </c>
       <c r="D37" t="n">
-        <v>13.2756026943925</v>
+        <v>13.2756026952634</v>
       </c>
       <c r="E37" t="n">
-        <v>10.3041140066594</v>
+        <v>10.3041140075273</v>
       </c>
       <c r="F37" t="n">
-        <v>9.33197684504269</v>
+        <v>9.3319768459088</v>
       </c>
       <c r="G37" t="n">
-        <v>7.61119455144963</v>
+        <v>7.61119455231233</v>
       </c>
       <c r="H37" t="n">
-        <v>7.16136356175898</v>
+        <v>7.16136356262037</v>
       </c>
       <c r="I37" t="n">
-        <v>7.31167963559153</v>
+        <v>7.31167963645346</v>
       </c>
       <c r="J37" t="n">
-        <v>7.31167963559153</v>
+        <v>7.31167963645346</v>
       </c>
       <c r="K37" t="n">
-        <v>-47.6288335162515</v>
+        <v>-47.6288335133483</v>
       </c>
     </row>
     <row r="38">
@@ -17433,31 +17433,31 @@
         <v>48</v>
       </c>
       <c r="C38" t="n">
-        <v>40.3391820035811</v>
+        <v>40.3391820054128</v>
       </c>
       <c r="D38" t="n">
-        <v>37.2426368634094</v>
+        <v>37.2426368651949</v>
       </c>
       <c r="E38" t="n">
-        <v>37.7169679034622</v>
+        <v>37.7169679052378</v>
       </c>
       <c r="F38" t="n">
-        <v>40.8420363776983</v>
+        <v>40.8420363794755</v>
       </c>
       <c r="G38" t="n">
-        <v>40.8393196494662</v>
+        <v>40.8393196512419</v>
       </c>
       <c r="H38" t="n">
-        <v>42.2809267091343</v>
+        <v>42.2809267109073</v>
       </c>
       <c r="I38" t="n">
-        <v>43.4779279933445</v>
+        <v>43.4779279951163</v>
       </c>
       <c r="J38" t="n">
-        <v>43.49747252965</v>
+        <v>43.4974725314191</v>
       </c>
       <c r="K38" t="n">
-        <v>7.82933705940922</v>
+        <v>7.82933705889857</v>
       </c>
     </row>
     <row r="39">
@@ -17468,31 +17468,31 @@
         <v>49</v>
       </c>
       <c r="C39" t="n">
-        <v>28.9594694822973</v>
+        <v>28.9594694824019</v>
       </c>
       <c r="D39" t="n">
-        <v>31.395814302561</v>
+        <v>31.3958143032052</v>
       </c>
       <c r="E39" t="n">
-        <v>30.6845043471147</v>
+        <v>30.6845043473002</v>
       </c>
       <c r="F39" t="n">
-        <v>30.7007732084025</v>
+        <v>30.7007732085889</v>
       </c>
       <c r="G39" t="n">
-        <v>31.9453763106296</v>
+        <v>31.9453763108189</v>
       </c>
       <c r="H39" t="n">
-        <v>32.8675476473875</v>
+        <v>32.8675476475798</v>
       </c>
       <c r="I39" t="n">
-        <v>33.1276045843715</v>
+        <v>33.1276045845658</v>
       </c>
       <c r="J39" t="n">
-        <v>33.1090569307162</v>
+        <v>33.109056930912</v>
       </c>
       <c r="K39" t="n">
-        <v>14.3289484324134</v>
+        <v>14.3289484326768</v>
       </c>
     </row>
     <row r="40">
@@ -17503,31 +17503,31 @@
         <v>50</v>
       </c>
       <c r="C40" t="n">
-        <v>23.963649611284</v>
+        <v>23.9636496127513</v>
       </c>
       <c r="D40" t="n">
-        <v>27.0270819879796</v>
+        <v>27.0270819894526</v>
       </c>
       <c r="E40" t="n">
-        <v>27.0684533817529</v>
+        <v>27.068453383226</v>
       </c>
       <c r="F40" t="n">
-        <v>27.4140381886537</v>
+        <v>27.414038190128</v>
       </c>
       <c r="G40" t="n">
-        <v>27.0950368779874</v>
+        <v>27.0950368794611</v>
       </c>
       <c r="H40" t="n">
-        <v>27.5215077053491</v>
+        <v>27.5215077068254</v>
       </c>
       <c r="I40" t="n">
-        <v>30.9047991281542</v>
+        <v>30.9047991296325</v>
       </c>
       <c r="J40" t="n">
-        <v>30.9051218235056</v>
+        <v>30.9051218249843</v>
       </c>
       <c r="K40" t="n">
-        <v>28.9666737947669</v>
+        <v>28.9666737930407</v>
       </c>
     </row>
     <row r="41">
@@ -17538,31 +17538,31 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>53.9408425813295</v>
+        <v>53.9408425820973</v>
       </c>
       <c r="D41" t="n">
-        <v>51.9028621877136</v>
+        <v>51.9028621882849</v>
       </c>
       <c r="E41" t="n">
-        <v>52.3864208950986</v>
+        <v>52.3864208957273</v>
       </c>
       <c r="F41" t="n">
-        <v>53.9838968999081</v>
+        <v>53.9838969005416</v>
       </c>
       <c r="G41" t="n">
-        <v>53.2522896679743</v>
+        <v>53.2522896686075</v>
       </c>
       <c r="H41" t="n">
-        <v>52.6862797675511</v>
+        <v>52.686279768184</v>
       </c>
       <c r="I41" t="n">
-        <v>52.9276320975261</v>
+        <v>52.927632098159</v>
       </c>
       <c r="J41" t="n">
-        <v>52.9103705776643</v>
+        <v>52.910370578298</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.91037431814587</v>
+        <v>-1.91037431836716</v>
       </c>
     </row>
     <row r="42">
@@ -17573,31 +17573,31 @@
         <v>52</v>
       </c>
       <c r="C42" t="n">
-        <v>44.3712384698499</v>
+        <v>44.3712384699776</v>
       </c>
       <c r="D42" t="n">
-        <v>40.2377453303487</v>
+        <v>40.2377453306422</v>
       </c>
       <c r="E42" t="n">
-        <v>39.2033753355554</v>
+        <v>39.2033753358686</v>
       </c>
       <c r="F42" t="n">
-        <v>38.7393619176099</v>
+        <v>38.7393619179247</v>
       </c>
       <c r="G42" t="n">
-        <v>36.8855495750133</v>
+        <v>36.8855495753263</v>
       </c>
       <c r="H42" t="n">
-        <v>36.7841877984454</v>
+        <v>36.7841877987578</v>
       </c>
       <c r="I42" t="n">
-        <v>37.9767493500364</v>
+        <v>37.9767493503504</v>
       </c>
       <c r="J42" t="n">
-        <v>37.9819149391305</v>
+        <v>37.9819149394456</v>
       </c>
       <c r="K42" t="n">
-        <v>-14.399696179454</v>
+        <v>-14.3996961789902</v>
       </c>
     </row>
     <row r="43">
@@ -17608,31 +17608,31 @@
         <v>53</v>
       </c>
       <c r="C43" t="n">
-        <v>55.2117797020274</v>
+        <v>55.2117797026755</v>
       </c>
       <c r="D43" t="n">
-        <v>55.8674650000304</v>
+        <v>55.8674650004515</v>
       </c>
       <c r="E43" t="n">
-        <v>55.1745111090485</v>
+        <v>55.1745111094755</v>
       </c>
       <c r="F43" t="n">
-        <v>54.9598201558483</v>
+        <v>54.9598201562757</v>
       </c>
       <c r="G43" t="n">
-        <v>54.7281809232777</v>
+        <v>54.7281809237052</v>
       </c>
       <c r="H43" t="n">
-        <v>54.1040577860997</v>
+        <v>54.1040577865256</v>
       </c>
       <c r="I43" t="n">
-        <v>55.122926961574</v>
+        <v>55.1229269620024</v>
       </c>
       <c r="J43" t="n">
-        <v>55.08867371721</v>
+        <v>55.0886737176395</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.222970506442421</v>
+        <v>-0.222970506835685</v>
       </c>
     </row>
     <row r="44">
@@ -17643,31 +17643,31 @@
         <v>54</v>
       </c>
       <c r="C44" t="n">
-        <v>56.4808584166997</v>
+        <v>56.4808584178319</v>
       </c>
       <c r="D44" t="n">
-        <v>60.1940455712498</v>
+        <v>60.1940455725651</v>
       </c>
       <c r="E44" t="n">
-        <v>59.8569140965417</v>
+        <v>59.8569140978426</v>
       </c>
       <c r="F44" t="n">
-        <v>61.1724058256549</v>
+        <v>61.1724058269546</v>
       </c>
       <c r="G44" t="n">
-        <v>59.8699069393657</v>
+        <v>59.8699069406604</v>
       </c>
       <c r="H44" t="n">
-        <v>58.2264742861067</v>
+        <v>58.2264742873945</v>
       </c>
       <c r="I44" t="n">
-        <v>59.1061255579281</v>
+        <v>59.1061255592137</v>
       </c>
       <c r="J44" t="n">
-        <v>59.1327817915113</v>
+        <v>59.1327817927943</v>
       </c>
       <c r="K44" t="n">
-        <v>4.6952603929042</v>
+        <v>4.69526039307702</v>
       </c>
     </row>
     <row r="45">
@@ -17678,31 +17678,31 @@
         <v>55</v>
       </c>
       <c r="C45" t="n">
-        <v>46.8257202665502</v>
+        <v>46.8257202665014</v>
       </c>
       <c r="D45" t="n">
-        <v>43.9869130291988</v>
+        <v>43.9869130299884</v>
       </c>
       <c r="E45" t="n">
-        <v>42.9455226890505</v>
+        <v>42.9455226899338</v>
       </c>
       <c r="F45" t="n">
-        <v>42.6230623047132</v>
+        <v>42.6230623055979</v>
       </c>
       <c r="G45" t="n">
-        <v>43.4508875817534</v>
+        <v>43.4508875826408</v>
       </c>
       <c r="H45" t="n">
-        <v>45.512651587363</v>
+        <v>45.5126515882537</v>
       </c>
       <c r="I45" t="n">
-        <v>49.5481931059446</v>
+        <v>49.5481931068406</v>
       </c>
       <c r="J45" t="n">
-        <v>49.514018786564</v>
+        <v>49.514018787461</v>
       </c>
       <c r="K45" t="n">
-        <v>5.74107243777768</v>
+        <v>5.74107243980362</v>
       </c>
     </row>
     <row r="46">
@@ -17713,31 +17713,31 @@
         <v>56</v>
       </c>
       <c r="C46" t="n">
-        <v>40.84768799407</v>
+        <v>40.8476879947363</v>
       </c>
       <c r="D46" t="n">
-        <v>41.2816566383459</v>
+        <v>41.2816566395505</v>
       </c>
       <c r="E46" t="n">
-        <v>40.8020049306347</v>
+        <v>40.80200493114</v>
       </c>
       <c r="F46" t="n">
-        <v>40.7921001210532</v>
+        <v>40.7921001215595</v>
       </c>
       <c r="G46" t="n">
-        <v>40.1085195440272</v>
+        <v>40.108519544535</v>
       </c>
       <c r="H46" t="n">
-        <v>41.1498634963477</v>
+        <v>41.1498634968613</v>
       </c>
       <c r="I46" t="n">
-        <v>41.9389139614143</v>
+        <v>41.9389139619342</v>
       </c>
       <c r="J46" t="n">
-        <v>41.880652640339</v>
+        <v>41.8806526408616</v>
       </c>
       <c r="K46" t="n">
-        <v>2.52882034943798</v>
+        <v>2.52882034904498</v>
       </c>
     </row>
     <row r="47">
@@ -17748,31 +17748,31 @@
         <v>57</v>
       </c>
       <c r="C47" t="n">
-        <v>62.0816679136938</v>
+        <v>62.0816679149689</v>
       </c>
       <c r="D47" t="n">
-        <v>66.0461070574321</v>
+        <v>66.046107058693</v>
       </c>
       <c r="E47" t="n">
-        <v>66.4830786645146</v>
+        <v>66.4830786657975</v>
       </c>
       <c r="F47" t="n">
-        <v>68.5023132370226</v>
+        <v>68.502313238307</v>
       </c>
       <c r="G47" t="n">
-        <v>66.1287785980383</v>
+        <v>66.1287785993177</v>
       </c>
       <c r="H47" t="n">
-        <v>64.5332079994561</v>
+        <v>64.5332080007304</v>
       </c>
       <c r="I47" t="n">
-        <v>64.7160478963989</v>
+        <v>64.7160478976727</v>
       </c>
       <c r="J47" t="n">
-        <v>64.7816143959757</v>
+        <v>64.7816143972492</v>
       </c>
       <c r="K47" t="n">
-        <v>4.34902375051431</v>
+        <v>4.34902375042223</v>
       </c>
     </row>
     <row r="48">
@@ -17783,31 +17783,31 @@
         <v>58</v>
       </c>
       <c r="C48" t="n">
-        <v>21.2346827928121</v>
+        <v>21.2346827934855</v>
       </c>
       <c r="D48" t="n">
-        <v>18.5322434838271</v>
+        <v>18.5322434844997</v>
       </c>
       <c r="E48" t="n">
-        <v>18.1242451016744</v>
+        <v>18.1242451023475</v>
       </c>
       <c r="F48" t="n">
-        <v>17.2445316160553</v>
+        <v>17.2445316167275</v>
       </c>
       <c r="G48" t="n">
-        <v>16.9521794949321</v>
+        <v>16.9521794956047</v>
       </c>
       <c r="H48" t="n">
-        <v>16.6293176982437</v>
+        <v>16.6293176989166</v>
       </c>
       <c r="I48" t="n">
-        <v>17.6071622729535</v>
+        <v>17.6071622736283</v>
       </c>
       <c r="J48" t="n">
-        <v>17.6109229998794</v>
+        <v>17.6109230005548</v>
       </c>
       <c r="K48" t="n">
-        <v>-17.0652880868996</v>
+        <v>-17.0652880863494</v>
       </c>
     </row>
     <row r="49">
@@ -17818,31 +17818,31 @@
         <v>59</v>
       </c>
       <c r="C49" t="n">
-        <v>42.0949270923376</v>
+        <v>42.0949270937902</v>
       </c>
       <c r="D49" t="n">
-        <v>40.6452770907708</v>
+        <v>40.6452770921726</v>
       </c>
       <c r="E49" t="n">
-        <v>40.7719315780646</v>
+        <v>40.7719315794815</v>
       </c>
       <c r="F49" t="n">
-        <v>42.8564311865478</v>
+        <v>42.8564311879654</v>
       </c>
       <c r="G49" t="n">
-        <v>43.0952353272844</v>
+        <v>43.0952353287006</v>
       </c>
       <c r="H49" t="n">
-        <v>43.8377379496702</v>
+        <v>43.837737951084</v>
       </c>
       <c r="I49" t="n">
-        <v>44.7253329518441</v>
+        <v>44.7253329532569</v>
       </c>
       <c r="J49" t="n">
-        <v>44.7548591312722</v>
+        <v>44.7548591326831</v>
       </c>
       <c r="K49" t="n">
-        <v>6.31888976336716</v>
+        <v>6.31888976304986</v>
       </c>
     </row>
     <row r="50">
@@ -17853,31 +17853,31 @@
         <v>60</v>
       </c>
       <c r="C50" t="n">
-        <v>57.1228955434962</v>
+        <v>57.1228955441888</v>
       </c>
       <c r="D50" t="n">
-        <v>53.4218550251999</v>
+        <v>53.4218550258659</v>
       </c>
       <c r="E50" t="n">
-        <v>53.498441774842</v>
+        <v>53.4984417754049</v>
       </c>
       <c r="F50" t="n">
-        <v>55.1330013602952</v>
+        <v>55.1330013608602</v>
       </c>
       <c r="G50" t="n">
-        <v>54.0952673545685</v>
+        <v>54.0952673551322</v>
       </c>
       <c r="H50" t="n">
-        <v>53.4290977886136</v>
+        <v>53.4290977891756</v>
       </c>
       <c r="I50" t="n">
-        <v>54.0315098945713</v>
+        <v>54.0315098951325</v>
       </c>
       <c r="J50" t="n">
-        <v>53.9947146260217</v>
+        <v>53.9947146265828</v>
       </c>
       <c r="K50" t="n">
-        <v>-5.47622960585495</v>
+        <v>-5.47622960601875</v>
       </c>
     </row>
     <row r="51">
@@ -17888,31 +17888,31 @@
         <v>61</v>
       </c>
       <c r="C51" t="n">
-        <v>57.1228955434962</v>
+        <v>57.1228955441888</v>
       </c>
       <c r="D51" t="n">
-        <v>53.4218550251999</v>
+        <v>53.4218550258659</v>
       </c>
       <c r="E51" t="n">
-        <v>53.498441774842</v>
+        <v>53.4984417754049</v>
       </c>
       <c r="F51" t="n">
-        <v>55.1330013602952</v>
+        <v>55.1330013608602</v>
       </c>
       <c r="G51" t="n">
-        <v>54.0952673545685</v>
+        <v>54.0952673551322</v>
       </c>
       <c r="H51" t="n">
-        <v>53.4290977886136</v>
+        <v>53.4290977891756</v>
       </c>
       <c r="I51" t="n">
-        <v>54.0315098945713</v>
+        <v>54.0315098951325</v>
       </c>
       <c r="J51" t="n">
-        <v>53.9947146260217</v>
+        <v>53.9947146265828</v>
       </c>
       <c r="K51" t="n">
-        <v>-5.47622960585495</v>
+        <v>-5.47622960601875</v>
       </c>
     </row>
     <row r="52">
@@ -17923,31 +17923,31 @@
         <v>62</v>
       </c>
       <c r="C52" t="n">
-        <v>56.8283198490575</v>
+        <v>56.8283198497495</v>
       </c>
       <c r="D52" t="n">
-        <v>53.0215188430854</v>
+        <v>53.0215188437506</v>
       </c>
       <c r="E52" t="n">
-        <v>53.1052388672555</v>
+        <v>53.1052388678161</v>
       </c>
       <c r="F52" t="n">
-        <v>54.7605470307569</v>
+        <v>54.7605470313198</v>
       </c>
       <c r="G52" t="n">
-        <v>53.7122988870219</v>
+        <v>53.7122988875834</v>
       </c>
       <c r="H52" t="n">
-        <v>53.0262602399926</v>
+        <v>53.0262602405525</v>
       </c>
       <c r="I52" t="n">
-        <v>53.6363234647483</v>
+        <v>53.6363234653073</v>
       </c>
       <c r="J52" t="n">
-        <v>53.5997400259615</v>
+        <v>53.5997400265204</v>
       </c>
       <c r="K52" t="n">
-        <v>-5.68128678037904</v>
+        <v>-5.68128678054411</v>
       </c>
     </row>
     <row r="53">
@@ -17958,31 +17958,31 @@
         <v>63</v>
       </c>
       <c r="C53" t="n">
-        <v>37.1466904115344</v>
+        <v>37.1466904125189</v>
       </c>
       <c r="D53" t="n">
-        <v>39.9719682438362</v>
+        <v>39.9719682447818</v>
       </c>
       <c r="E53" t="n">
-        <v>42.7369078656464</v>
+        <v>42.7369078662278</v>
       </c>
       <c r="F53" t="n">
-        <v>42.8364791091883</v>
+        <v>42.8364791097862</v>
       </c>
       <c r="G53" t="n">
-        <v>45.9463624973918</v>
+        <v>45.946362497993</v>
       </c>
       <c r="H53" t="n">
-        <v>46.8812081025371</v>
+        <v>46.8812081031408</v>
       </c>
       <c r="I53" t="n">
-        <v>47.0075173527898</v>
+        <v>47.0075173533937</v>
       </c>
       <c r="J53" t="n">
-        <v>47.1511779684454</v>
+        <v>47.1511779690498</v>
       </c>
       <c r="K53" t="n">
-        <v>26.9323792942924</v>
+        <v>26.9323792925556</v>
       </c>
     </row>
     <row r="54">
@@ -17993,31 +17993,31 @@
         <v>64</v>
       </c>
       <c r="C54" t="n">
-        <v>37.1466904115344</v>
+        <v>37.1466904125189</v>
       </c>
       <c r="D54" t="n">
-        <v>39.9719682438362</v>
+        <v>39.9719682447818</v>
       </c>
       <c r="E54" t="n">
-        <v>42.7369078656464</v>
+        <v>42.7369078662278</v>
       </c>
       <c r="F54" t="n">
-        <v>42.8364791091883</v>
+        <v>42.8364791097862</v>
       </c>
       <c r="G54" t="n">
-        <v>45.9463624973918</v>
+        <v>45.946362497993</v>
       </c>
       <c r="H54" t="n">
-        <v>46.8812081025371</v>
+        <v>46.8812081031408</v>
       </c>
       <c r="I54" t="n">
-        <v>47.0075173527898</v>
+        <v>47.0075173533937</v>
       </c>
       <c r="J54" t="n">
-        <v>47.1511779684454</v>
+        <v>47.1511779690498</v>
       </c>
       <c r="K54" t="n">
-        <v>26.9323792942924</v>
+        <v>26.9323792925556</v>
       </c>
     </row>
     <row r="55">
@@ -18028,31 +18028,31 @@
         <v>65</v>
       </c>
       <c r="C55" t="n">
-        <v>37.1466904115344</v>
+        <v>37.1466904125189</v>
       </c>
       <c r="D55" t="n">
-        <v>39.9719682438362</v>
+        <v>39.9719682447818</v>
       </c>
       <c r="E55" t="n">
-        <v>42.7369078656464</v>
+        <v>42.7369078662278</v>
       </c>
       <c r="F55" t="n">
-        <v>42.8364791091883</v>
+        <v>42.8364791097862</v>
       </c>
       <c r="G55" t="n">
-        <v>45.9463624973918</v>
+        <v>45.946362497993</v>
       </c>
       <c r="H55" t="n">
-        <v>46.8812081025371</v>
+        <v>46.8812081031408</v>
       </c>
       <c r="I55" t="n">
-        <v>47.0075173527898</v>
+        <v>47.0075173533937</v>
       </c>
       <c r="J55" t="n">
-        <v>47.1511779684454</v>
+        <v>47.1511779690498</v>
       </c>
       <c r="K55" t="n">
-        <v>26.9323792942924</v>
+        <v>26.9323792925556</v>
       </c>
     </row>
     <row r="56">
@@ -18063,31 +18063,31 @@
         <v>66</v>
       </c>
       <c r="C56" t="n">
-        <v>62.0433742177766</v>
+        <v>62.0433742182647</v>
       </c>
       <c r="D56" t="n">
-        <v>60.6932714044411</v>
+        <v>60.6932714049967</v>
       </c>
       <c r="E56" t="n">
-        <v>60.1827767085373</v>
+        <v>60.1827767091126</v>
       </c>
       <c r="F56" t="n">
-        <v>59.9809834786487</v>
+        <v>59.9809834792209</v>
       </c>
       <c r="G56" t="n">
-        <v>58.9470540502558</v>
+        <v>58.9470540508232</v>
       </c>
       <c r="H56" t="n">
-        <v>58.6635187607336</v>
+        <v>58.663518761297</v>
       </c>
       <c r="I56" t="n">
-        <v>59.8379407636371</v>
+        <v>59.8379407641999</v>
       </c>
       <c r="J56" t="n">
-        <v>59.8357691699187</v>
+        <v>59.8357691704797</v>
       </c>
       <c r="K56" t="n">
-        <v>-3.55816406778436</v>
+        <v>-3.55816406763881</v>
       </c>
     </row>
     <row r="57">
@@ -18098,31 +18098,31 @@
         <v>67</v>
       </c>
       <c r="C57" t="n">
-        <v>56.7923727128764</v>
+        <v>56.7923727136621</v>
       </c>
       <c r="D57" t="n">
-        <v>56.8818432966025</v>
+        <v>56.8818432974967</v>
       </c>
       <c r="E57" t="n">
-        <v>56.1500236560632</v>
+        <v>56.1500236569993</v>
       </c>
       <c r="F57" t="n">
-        <v>56.2049636510549</v>
+        <v>56.2049636519902</v>
       </c>
       <c r="G57" t="n">
-        <v>56.5759829428565</v>
+        <v>56.5759829437899</v>
       </c>
       <c r="H57" t="n">
-        <v>55.7867346339182</v>
+        <v>55.7867346348477</v>
       </c>
       <c r="I57" t="n">
-        <v>57.2453669519636</v>
+        <v>57.2453669528941</v>
       </c>
       <c r="J57" t="n">
-        <v>57.2522210658103</v>
+        <v>57.2522210667393</v>
       </c>
       <c r="K57" t="n">
-        <v>0.809700899905685</v>
+        <v>0.809700900146604</v>
       </c>
     </row>
     <row r="58">
@@ -18133,31 +18133,31 @@
         <v>68</v>
       </c>
       <c r="C58" t="n">
-        <v>22.362461166106</v>
+        <v>22.3624611676684</v>
       </c>
       <c r="D58" t="n">
-        <v>20.8222035527766</v>
+        <v>20.8222035521557</v>
       </c>
       <c r="E58" t="n">
-        <v>19.1639803342151</v>
+        <v>19.1639803336056</v>
       </c>
       <c r="F58" t="n">
-        <v>18.7672285559633</v>
+        <v>18.7672285553515</v>
       </c>
       <c r="G58" t="n">
-        <v>18.5147005879425</v>
+        <v>18.5147005873281</v>
       </c>
       <c r="H58" t="n">
-        <v>20.3801171614731</v>
+        <v>20.3801171608578</v>
       </c>
       <c r="I58" t="n">
-        <v>21.4695389464835</v>
+        <v>21.4695389458661</v>
       </c>
       <c r="J58" t="n">
-        <v>21.5292047175871</v>
+        <v>21.5292047169676</v>
       </c>
       <c r="K58" t="n">
-        <v>-3.72613927567996</v>
+        <v>-3.7261392851766</v>
       </c>
     </row>
     <row r="59">
@@ -18168,31 +18168,31 @@
         <v>69</v>
       </c>
       <c r="C59" t="n">
-        <v>46.0583203037849</v>
+        <v>46.0583203050181</v>
       </c>
       <c r="D59" t="n">
-        <v>43.266170375549</v>
+        <v>43.2661703767372</v>
       </c>
       <c r="E59" t="n">
-        <v>43.7529964801865</v>
+        <v>43.7529964813407</v>
       </c>
       <c r="F59" t="n">
-        <v>45.7520439469334</v>
+        <v>45.7520439480924</v>
       </c>
       <c r="G59" t="n">
-        <v>45.3649227241416</v>
+        <v>45.3649227253018</v>
       </c>
       <c r="H59" t="n">
-        <v>45.7940377495726</v>
+        <v>45.7940377507339</v>
       </c>
       <c r="I59" t="n">
-        <v>46.5323351928607</v>
+        <v>46.5323351940237</v>
       </c>
       <c r="J59" t="n">
-        <v>46.5214017392485</v>
+        <v>46.5214017404131</v>
       </c>
       <c r="K59" t="n">
-        <v>1.00542406325128</v>
+        <v>1.00542406307542</v>
       </c>
     </row>
     <row r="60">
@@ -18203,31 +18203,31 @@
         <v>70</v>
       </c>
       <c r="C60" t="n">
-        <v>48.407190834027</v>
+        <v>48.407190835078</v>
       </c>
       <c r="D60" t="n">
-        <v>46.4712210072227</v>
+        <v>46.4712210082349</v>
       </c>
       <c r="E60" t="n">
-        <v>46.692877075842</v>
+        <v>46.6928770768322</v>
       </c>
       <c r="F60" t="n">
-        <v>48.3321058336871</v>
+        <v>48.3321058346797</v>
       </c>
       <c r="G60" t="n">
-        <v>48.0642394584297</v>
+        <v>48.0642394594213</v>
       </c>
       <c r="H60" t="n">
-        <v>48.2337083440979</v>
+        <v>48.2337083450879</v>
       </c>
       <c r="I60" t="n">
-        <v>49.0389789262665</v>
+        <v>49.0389789272563</v>
       </c>
       <c r="J60" t="n">
-        <v>49.0536667644595</v>
+        <v>49.0536667654487</v>
       </c>
       <c r="K60" t="n">
-        <v>1.33549565528199</v>
+        <v>1.33549565512521</v>
       </c>
     </row>
     <row r="61">
@@ -18238,31 +18238,31 @@
         <v>71</v>
       </c>
       <c r="C61" t="n">
-        <v>52.5346717211946</v>
+        <v>52.5346717212725</v>
       </c>
       <c r="D61" t="n">
-        <v>53.8748322719036</v>
+        <v>53.8748322718693</v>
       </c>
       <c r="E61" t="n">
-        <v>52.9771285036227</v>
+        <v>52.9771285036226</v>
       </c>
       <c r="F61" t="n">
-        <v>53.7249886030099</v>
+        <v>53.7249886030116</v>
       </c>
       <c r="G61" t="n">
-        <v>53.0754355393273</v>
+        <v>53.075435539328</v>
       </c>
       <c r="H61" t="n">
-        <v>51.0421894263826</v>
+        <v>51.0421894263781</v>
       </c>
       <c r="I61" t="n">
-        <v>51.296562632604</v>
+        <v>51.296562632599</v>
       </c>
       <c r="J61" t="n">
-        <v>51.2826313234299</v>
+        <v>51.2826313234254</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.3832649119981</v>
+        <v>-2.38326491215168</v>
       </c>
     </row>
     <row r="62">
@@ -18273,31 +18273,31 @@
         <v>72</v>
       </c>
       <c r="C62" t="n">
-        <v>57.0248285370683</v>
+        <v>57.0248285377802</v>
       </c>
       <c r="D62" t="n">
-        <v>57.1675057394678</v>
+        <v>57.1675057402155</v>
       </c>
       <c r="E62" t="n">
-        <v>56.6032012062708</v>
+        <v>56.6032012070318</v>
       </c>
       <c r="F62" t="n">
-        <v>56.9510154019275</v>
+        <v>56.9510154026893</v>
       </c>
       <c r="G62" t="n">
-        <v>57.2513279076614</v>
+        <v>57.2513279084228</v>
       </c>
       <c r="H62" t="n">
-        <v>57.2714988827843</v>
+        <v>57.2714988835439</v>
       </c>
       <c r="I62" t="n">
-        <v>58.500126500394</v>
+        <v>58.5001265011551</v>
       </c>
       <c r="J62" t="n">
-        <v>58.491147342484</v>
+        <v>58.4911473432447</v>
       </c>
       <c r="K62" t="n">
-        <v>2.57136907384568</v>
+        <v>2.57136907389908</v>
       </c>
     </row>
     <row r="63">
@@ -18308,31 +18308,31 @@
         <v>73</v>
       </c>
       <c r="C63" t="n">
-        <v>55.520612531798</v>
+        <v>55.5206125322975</v>
       </c>
       <c r="D63" t="n">
-        <v>56.063246114952</v>
+        <v>56.0632461154375</v>
       </c>
       <c r="E63" t="n">
-        <v>55.3859632969537</v>
+        <v>55.3859632974592</v>
       </c>
       <c r="F63" t="n">
-        <v>55.8672696906584</v>
+        <v>55.8672696911649</v>
       </c>
       <c r="G63" t="n">
-        <v>55.8477762390959</v>
+        <v>55.8477762396016</v>
       </c>
       <c r="H63" t="n">
-        <v>55.1771727902649</v>
+        <v>55.1771727907677</v>
       </c>
       <c r="I63" t="n">
-        <v>56.0781293471112</v>
+        <v>56.0781293476147</v>
       </c>
       <c r="J63" t="n">
-        <v>56.0679791214471</v>
+        <v>56.0679791219505</v>
       </c>
       <c r="K63" t="n">
-        <v>0.985879954648561</v>
+        <v>0.985879954646673</v>
       </c>
     </row>
     <row r="64">
@@ -18343,31 +18343,31 @@
         <v>74</v>
       </c>
       <c r="C64" t="n">
-        <v>55.8338176126803</v>
+        <v>55.8338176133407</v>
       </c>
       <c r="D64" t="n">
-        <v>52.8094083889671</v>
+        <v>52.8094083895332</v>
       </c>
       <c r="E64" t="n">
-        <v>53.2713704357966</v>
+        <v>53.2713704362926</v>
       </c>
       <c r="F64" t="n">
-        <v>55.1447272818145</v>
+        <v>55.1447272823154</v>
       </c>
       <c r="G64" t="n">
-        <v>54.178026037572</v>
+        <v>54.1780260380718</v>
       </c>
       <c r="H64" t="n">
-        <v>53.5613201757534</v>
+        <v>53.5613201762516</v>
       </c>
       <c r="I64" t="n">
-        <v>54.0660405508115</v>
+        <v>54.0660405513092</v>
       </c>
       <c r="J64" t="n">
-        <v>54.0477000942725</v>
+        <v>54.0477000947703</v>
       </c>
       <c r="K64" t="n">
-        <v>-3.19898870393944</v>
+        <v>-3.19898870419288</v>
       </c>
     </row>
     <row r="65">
@@ -18378,31 +18378,31 @@
         <v>75</v>
       </c>
       <c r="C65" t="n">
-        <v>33.9976293672576</v>
+        <v>33.9976293675957</v>
       </c>
       <c r="D65" t="n">
-        <v>35.6152327620418</v>
+        <v>35.6152327625106</v>
       </c>
       <c r="E65" t="n">
-        <v>35.2036543468362</v>
+        <v>35.2036543475596</v>
       </c>
       <c r="F65" t="n">
-        <v>34.9066598814507</v>
+        <v>34.9066598821747</v>
       </c>
       <c r="G65" t="n">
-        <v>35.7816596057023</v>
+        <v>35.7816596064287</v>
       </c>
       <c r="H65" t="n">
-        <v>36.3694442811001</v>
+        <v>36.3694442818292</v>
       </c>
       <c r="I65" t="n">
-        <v>36.3095900503637</v>
+        <v>36.3095900510948</v>
       </c>
       <c r="J65" t="n">
-        <v>36.3090439167739</v>
+        <v>36.3090439175065</v>
       </c>
       <c r="K65" t="n">
-        <v>6.79875212635397</v>
+        <v>6.79875212744649</v>
       </c>
     </row>
     <row r="66">
@@ -18413,31 +18413,31 @@
         <v>76</v>
       </c>
       <c r="C66" t="n">
-        <v>34.0253264027867</v>
+        <v>34.0253264031134</v>
       </c>
       <c r="D66" t="n">
-        <v>35.6694650299099</v>
+        <v>35.6694650303873</v>
       </c>
       <c r="E66" t="n">
-        <v>35.2700399738705</v>
+        <v>35.2700399746041</v>
       </c>
       <c r="F66" t="n">
-        <v>34.97994363008</v>
+        <v>34.9799436308143</v>
       </c>
       <c r="G66" t="n">
-        <v>35.8644025623832</v>
+        <v>35.86440256312</v>
       </c>
       <c r="H66" t="n">
-        <v>36.4393509474411</v>
+        <v>36.4393509481806</v>
       </c>
       <c r="I66" t="n">
-        <v>36.3747003085741</v>
+        <v>36.3747003093158</v>
       </c>
       <c r="J66" t="n">
-        <v>36.3746229573217</v>
+        <v>36.3746229580649</v>
       </c>
       <c r="K66" t="n">
-        <v>6.90455258745903</v>
+        <v>6.90455258861697</v>
       </c>
     </row>
     <row r="67">
@@ -18448,31 +18448,31 @@
         <v>77</v>
       </c>
       <c r="C67" t="n">
-        <v>33.6648877406754</v>
+        <v>33.6648877409967</v>
       </c>
       <c r="D67" t="n">
-        <v>35.3417826641591</v>
+        <v>35.3417826646138</v>
       </c>
       <c r="E67" t="n">
-        <v>34.9150382112385</v>
+        <v>34.915038211953</v>
       </c>
       <c r="F67" t="n">
-        <v>34.6170227011124</v>
+        <v>34.6170227018276</v>
       </c>
       <c r="G67" t="n">
-        <v>35.5022978857378</v>
+        <v>35.5022978864556</v>
       </c>
       <c r="H67" t="n">
-        <v>36.1126079397168</v>
+        <v>36.1126079404373</v>
       </c>
       <c r="I67" t="n">
-        <v>36.0787763283818</v>
+        <v>36.0787763291045</v>
       </c>
       <c r="J67" t="n">
-        <v>36.0805006277382</v>
+        <v>36.0805006284625</v>
       </c>
       <c r="K67" t="n">
-        <v>7.17546693062092</v>
+        <v>7.17546693174937</v>
       </c>
     </row>
     <row r="68">
@@ -18483,31 +18483,31 @@
         <v>78</v>
       </c>
       <c r="C68" t="n">
-        <v>58.5312748261467</v>
+        <v>58.5312748268517</v>
       </c>
       <c r="D68" t="n">
-        <v>58.6712365610684</v>
+        <v>58.6712365618349</v>
       </c>
       <c r="E68" t="n">
-        <v>58.213497899066</v>
+        <v>58.21349789984</v>
       </c>
       <c r="F68" t="n">
-        <v>58.1803353996243</v>
+        <v>58.1803354003983</v>
       </c>
       <c r="G68" t="n">
-        <v>58.6958750401755</v>
+        <v>58.6958750409495</v>
       </c>
       <c r="H68" t="n">
-        <v>58.6998241063388</v>
+        <v>58.699824107111</v>
       </c>
       <c r="I68" t="n">
-        <v>59.6026471335971</v>
+        <v>59.6026471343702</v>
       </c>
       <c r="J68" t="n">
-        <v>59.5990832049531</v>
+        <v>59.5990832057259</v>
       </c>
       <c r="K68" t="n">
-        <v>1.82433815422289</v>
+        <v>1.82433815431653</v>
       </c>
     </row>
     <row r="69">
@@ -18518,31 +18518,31 @@
         <v>79</v>
       </c>
       <c r="C69" t="n">
-        <v>48.5764846922455</v>
+        <v>48.5764846932947</v>
       </c>
       <c r="D69" t="n">
-        <v>46.6788683679445</v>
+        <v>46.678868368957</v>
       </c>
       <c r="E69" t="n">
-        <v>46.8994017593555</v>
+        <v>46.8994017603461</v>
       </c>
       <c r="F69" t="n">
-        <v>48.5251671325346</v>
+        <v>48.5251671335274</v>
       </c>
       <c r="G69" t="n">
-        <v>48.2590086753211</v>
+        <v>48.259008676313</v>
       </c>
       <c r="H69" t="n">
-        <v>48.4230212747965</v>
+        <v>48.4230212757869</v>
       </c>
       <c r="I69" t="n">
-        <v>49.2263116019732</v>
+        <v>49.2263116029634</v>
       </c>
       <c r="J69" t="n">
-        <v>49.239851348983</v>
+        <v>49.2398513499726</v>
       </c>
       <c r="K69" t="n">
-        <v>1.3656127258697</v>
+        <v>1.36561272571762</v>
       </c>
     </row>
     <row r="70">
@@ -18553,31 +18553,31 @@
         <v>80</v>
       </c>
       <c r="C70" t="n">
-        <v>64.8187357410036</v>
+        <v>64.8187357418088</v>
       </c>
       <c r="D70" t="n">
-        <v>64.8575428663301</v>
+        <v>64.8575428672388</v>
       </c>
       <c r="E70" t="n">
-        <v>64.4804537696871</v>
+        <v>64.4804537705852</v>
       </c>
       <c r="F70" t="n">
-        <v>64.9282878914292</v>
+        <v>64.9282878923276</v>
       </c>
       <c r="G70" t="n">
-        <v>65.5278020450367</v>
+        <v>65.5278020459332</v>
       </c>
       <c r="H70" t="n">
-        <v>64.8650500841348</v>
+        <v>64.8650500850272</v>
       </c>
       <c r="I70" t="n">
-        <v>66.0818491882791</v>
+        <v>66.0818491891724</v>
       </c>
       <c r="J70" t="n">
-        <v>66.0277875017533</v>
+        <v>66.0277875026452</v>
       </c>
       <c r="K70" t="n">
-        <v>1.86528130628876</v>
+        <v>1.86528130639936</v>
       </c>
     </row>
     <row r="71">
@@ -18588,31 +18588,31 @@
         <v>81</v>
       </c>
       <c r="C71" t="n">
-        <v>42.0130790192737</v>
+        <v>42.0130790207519</v>
       </c>
       <c r="D71" t="n">
-        <v>39.7793001202664</v>
+        <v>39.7793001217423</v>
       </c>
       <c r="E71" t="n">
-        <v>40.1300872866206</v>
+        <v>40.1300872880691</v>
       </c>
       <c r="F71" t="n">
-        <v>42.3222111620176</v>
+        <v>42.3222111634652</v>
       </c>
       <c r="G71" t="n">
-        <v>42.2495723007275</v>
+        <v>42.2495723021717</v>
       </c>
       <c r="H71" t="n">
-        <v>43.1832507241704</v>
+        <v>43.1832507256102</v>
       </c>
       <c r="I71" t="n">
-        <v>44.2265262571386</v>
+        <v>44.2265262585755</v>
       </c>
       <c r="J71" t="n">
-        <v>44.2528454708986</v>
+        <v>44.2528454723317</v>
       </c>
       <c r="K71" t="n">
-        <v>5.33111712806733</v>
+        <v>5.33111712777214</v>
       </c>
     </row>
     <row r="72">
@@ -18623,31 +18623,31 @@
         <v>82</v>
       </c>
       <c r="C72" t="n">
-        <v>61.0979663743195</v>
+        <v>61.0979663759605</v>
       </c>
       <c r="D72" t="n">
-        <v>64.1006728458648</v>
+        <v>64.1006728468776</v>
       </c>
       <c r="E72" t="n">
-        <v>64.4329661391679</v>
+        <v>64.4329661401816</v>
       </c>
       <c r="F72" t="n">
-        <v>66.1889841202273</v>
+        <v>66.1889841212447</v>
       </c>
       <c r="G72" t="n">
-        <v>64.0449255641175</v>
+        <v>64.0449255651323</v>
       </c>
       <c r="H72" t="n">
-        <v>63.1005955139603</v>
+        <v>63.1005955149728</v>
       </c>
       <c r="I72" t="n">
-        <v>62.8297653356004</v>
+        <v>62.8297653366139</v>
       </c>
       <c r="J72" t="n">
-        <v>62.8643309011461</v>
+        <v>62.8643309021611</v>
       </c>
       <c r="K72" t="n">
-        <v>2.89103652976745</v>
+        <v>2.89103652866523</v>
       </c>
     </row>
     <row r="73">
@@ -18658,31 +18658,31 @@
         <v>83</v>
       </c>
       <c r="C73" t="n">
-        <v>61.0979663743195</v>
+        <v>61.0979663759605</v>
       </c>
       <c r="D73" t="n">
-        <v>64.1006728458648</v>
+        <v>64.1006728468776</v>
       </c>
       <c r="E73" t="n">
-        <v>64.4329661391679</v>
+        <v>64.4329661401816</v>
       </c>
       <c r="F73" t="n">
-        <v>66.1889841202273</v>
+        <v>66.1889841212447</v>
       </c>
       <c r="G73" t="n">
-        <v>64.0449255641175</v>
+        <v>64.0449255651323</v>
       </c>
       <c r="H73" t="n">
-        <v>63.1005955139603</v>
+        <v>63.1005955149728</v>
       </c>
       <c r="I73" t="n">
-        <v>62.8297653356004</v>
+        <v>62.8297653366139</v>
       </c>
       <c r="J73" t="n">
-        <v>62.8643309011461</v>
+        <v>62.8643309021611</v>
       </c>
       <c r="K73" t="n">
-        <v>2.89103652976745</v>
+        <v>2.89103652866523</v>
       </c>
     </row>
     <row r="74">
@@ -18693,31 +18693,31 @@
         <v>84</v>
       </c>
       <c r="C74" t="n">
-        <v>61.2100613023515</v>
+        <v>61.2100613040067</v>
       </c>
       <c r="D74" t="n">
-        <v>64.1175575960634</v>
+        <v>64.1175575970824</v>
       </c>
       <c r="E74" t="n">
-        <v>64.4381263082899</v>
+        <v>64.4381263093097</v>
       </c>
       <c r="F74" t="n">
-        <v>66.2608431910779</v>
+        <v>66.2608431921016</v>
       </c>
       <c r="G74" t="n">
-        <v>64.0792979629032</v>
+        <v>64.0792979639244</v>
       </c>
       <c r="H74" t="n">
-        <v>63.2072365462891</v>
+        <v>63.2072365473081</v>
       </c>
       <c r="I74" t="n">
-        <v>62.8173921205573</v>
+        <v>62.8173921215771</v>
       </c>
       <c r="J74" t="n">
-        <v>62.8523141786025</v>
+        <v>62.8523141796239</v>
       </c>
       <c r="K74" t="n">
-        <v>2.68297864976643</v>
+        <v>2.68297864865841</v>
       </c>
     </row>
     <row r="75">
@@ -18728,31 +18728,31 @@
         <v>85</v>
       </c>
       <c r="C75" t="n">
-        <v>46.8355972664303</v>
+        <v>46.8355972675055</v>
       </c>
       <c r="D75" t="n">
-        <v>44.7048077760331</v>
+        <v>44.7048077770568</v>
       </c>
       <c r="E75" t="n">
-        <v>44.9648791778047</v>
+        <v>44.9648791788055</v>
       </c>
       <c r="F75" t="n">
-        <v>46.6955773792402</v>
+        <v>46.6955773802436</v>
       </c>
       <c r="G75" t="n">
-        <v>46.3057348841851</v>
+        <v>46.3057348851878</v>
       </c>
       <c r="H75" t="n">
-        <v>46.5364188744928</v>
+        <v>46.5364188754944</v>
       </c>
       <c r="I75" t="n">
-        <v>47.2635574583646</v>
+        <v>47.2635574593661</v>
       </c>
       <c r="J75" t="n">
-        <v>47.2550641404329</v>
+        <v>47.255064141434</v>
       </c>
       <c r="K75" t="n">
-        <v>0.895615511459114</v>
+        <v>0.895615511280234</v>
       </c>
     </row>
     <row r="76">
@@ -18763,31 +18763,31 @@
         <v>86</v>
       </c>
       <c r="C76" t="n">
-        <v>41.2268160889319</v>
+        <v>41.226816089741</v>
       </c>
       <c r="D76" t="n">
-        <v>44.1143134433159</v>
+        <v>44.1143134436986</v>
       </c>
       <c r="E76" t="n">
-        <v>45.3929909013857</v>
+        <v>45.3929909031803</v>
       </c>
       <c r="F76" t="n">
-        <v>44.8862084129412</v>
+        <v>44.8862084147333</v>
       </c>
       <c r="G76" t="n">
-        <v>48.0962586958457</v>
+        <v>48.0962586976403</v>
       </c>
       <c r="H76" t="n">
-        <v>49.8929480433648</v>
+        <v>49.8929480451619</v>
       </c>
       <c r="I76" t="n">
-        <v>49.9576011000583</v>
+        <v>49.9576011018556</v>
       </c>
       <c r="J76" t="n">
-        <v>49.9703591426763</v>
+        <v>49.9703591444729</v>
       </c>
       <c r="K76" t="n">
-        <v>21.2083878485385</v>
+        <v>21.2083878505178</v>
       </c>
     </row>
     <row r="77">
@@ -18798,31 +18798,31 @@
         <v>87</v>
       </c>
       <c r="C77" t="n">
-        <v>39.8837314382669</v>
+        <v>39.8837314392982</v>
       </c>
       <c r="D77" t="n">
-        <v>38.1930441832403</v>
+        <v>38.1930441842012</v>
       </c>
       <c r="E77" t="n">
-        <v>37.568916529722</v>
+        <v>37.5689165307413</v>
       </c>
       <c r="F77" t="n">
-        <v>37.9555268961928</v>
+        <v>37.9555268972079</v>
       </c>
       <c r="G77" t="n">
-        <v>37.9579504124566</v>
+        <v>37.9579504134677</v>
       </c>
       <c r="H77" t="n">
-        <v>36.47548095606</v>
+        <v>36.4754809570665</v>
       </c>
       <c r="I77" t="n">
-        <v>35.3515521101356</v>
+        <v>35.3515521111371</v>
       </c>
       <c r="J77" t="n">
-        <v>35.4452112385763</v>
+        <v>35.4452112395755</v>
       </c>
       <c r="K77" t="n">
-        <v>-11.1286482975163</v>
+        <v>-11.128648297309</v>
       </c>
     </row>
     <row r="78">
@@ -18833,31 +18833,31 @@
         <v>88</v>
       </c>
       <c r="C78" t="n">
-        <v>32.0224678500093</v>
+        <v>32.0224678506299</v>
       </c>
       <c r="D78" t="n">
-        <v>31.2706186926946</v>
+        <v>31.2706186933129</v>
       </c>
       <c r="E78" t="n">
-        <v>25.1189213149399</v>
+        <v>25.1189213155511</v>
       </c>
       <c r="F78" t="n">
-        <v>22.6973542919766</v>
+        <v>22.6973542925849</v>
       </c>
       <c r="G78" t="n">
-        <v>22.1268380457871</v>
+        <v>22.1268380463938</v>
       </c>
       <c r="H78" t="n">
-        <v>20.2828212181013</v>
+        <v>20.2828212187046</v>
       </c>
       <c r="I78" t="n">
-        <v>21.9226619752227</v>
+        <v>21.9226619758271</v>
       </c>
       <c r="J78" t="n">
-        <v>21.9344586670598</v>
+        <v>21.9344586676631</v>
       </c>
       <c r="K78" t="n">
-        <v>-31.5029098637899</v>
+        <v>-31.5029098632333</v>
       </c>
     </row>
     <row r="79">
@@ -18868,31 +18868,31 @@
         <v>89</v>
       </c>
       <c r="C79" t="n">
-        <v>26.9686335231897</v>
+        <v>26.9686335243109</v>
       </c>
       <c r="D79" t="n">
-        <v>27.0629709825985</v>
+        <v>27.0629709843172</v>
       </c>
       <c r="E79" t="n">
-        <v>32.4247484664015</v>
+        <v>32.4247484672695</v>
       </c>
       <c r="F79" t="n">
-        <v>32.0075812618678</v>
+        <v>32.0075812627373</v>
       </c>
       <c r="G79" t="n">
-        <v>29.7249764757668</v>
+        <v>29.7249764766342</v>
       </c>
       <c r="H79" t="n">
-        <v>30.5971770881181</v>
+        <v>30.597177088989</v>
       </c>
       <c r="I79" t="n">
-        <v>29.7595462054806</v>
+        <v>29.7595462063509</v>
       </c>
       <c r="J79" t="n">
-        <v>29.7749934442894</v>
+        <v>29.7749934451613</v>
       </c>
       <c r="K79" t="n">
-        <v>10.4060145230812</v>
+        <v>10.4060145217244</v>
       </c>
     </row>
     <row r="80">
@@ -18903,31 +18903,31 @@
         <v>90</v>
       </c>
       <c r="C80" t="n">
-        <v>56.5137397702363</v>
+        <v>56.5137397707382</v>
       </c>
       <c r="D80" t="n">
-        <v>55.5598133573141</v>
+        <v>55.5598133579083</v>
       </c>
       <c r="E80" t="n">
-        <v>55.038900920857</v>
+        <v>55.0389009214801</v>
       </c>
       <c r="F80" t="n">
-        <v>54.5241957612108</v>
+        <v>54.5241957618333</v>
       </c>
       <c r="G80" t="n">
-        <v>54.2424572257223</v>
+        <v>54.2424572263433</v>
       </c>
       <c r="H80" t="n">
-        <v>54.0860429354653</v>
+        <v>54.0860429360844</v>
       </c>
       <c r="I80" t="n">
-        <v>55.3643059334779</v>
+        <v>55.3643059340979</v>
       </c>
       <c r="J80" t="n">
-        <v>55.3577154081666</v>
+        <v>55.3577154087861</v>
       </c>
       <c r="K80" t="n">
-        <v>-2.04556337409216</v>
+        <v>-2.04556337386572</v>
       </c>
     </row>
     <row r="81">
@@ -18938,31 +18938,31 @@
         <v>91</v>
       </c>
       <c r="C81" t="n">
-        <v>36.3548250651235</v>
+        <v>36.3548250660685</v>
       </c>
       <c r="D81" t="n">
-        <v>34.6045676702693</v>
+        <v>34.6045676711603</v>
       </c>
       <c r="E81" t="n">
-        <v>33.6563547279817</v>
+        <v>33.6563547289181</v>
       </c>
       <c r="F81" t="n">
-        <v>33.6850412715832</v>
+        <v>33.6850412725167</v>
       </c>
       <c r="G81" t="n">
-        <v>33.6410180555367</v>
+        <v>33.6410180564677</v>
       </c>
       <c r="H81" t="n">
-        <v>32.3472182067105</v>
+        <v>32.3472182076384</v>
       </c>
       <c r="I81" t="n">
-        <v>31.7671365874791</v>
+        <v>31.767136588404</v>
       </c>
       <c r="J81" t="n">
-        <v>31.8734209469457</v>
+        <v>31.8734209478695</v>
       </c>
       <c r="K81" t="n">
-        <v>-12.3268482523299</v>
+        <v>-12.3268482520678</v>
       </c>
     </row>
     <row r="82">
@@ -18973,31 +18973,31 @@
         <v>92</v>
       </c>
       <c r="C82" t="n">
-        <v>39.1588568345484</v>
+        <v>39.1588568364352</v>
       </c>
       <c r="D82" t="n">
-        <v>35.8991209632926</v>
+        <v>35.8991209651297</v>
       </c>
       <c r="E82" t="n">
-        <v>36.4965715323344</v>
+        <v>36.4965715341699</v>
       </c>
       <c r="F82" t="n">
-        <v>39.9908083382295</v>
+        <v>39.9908083400673</v>
       </c>
       <c r="G82" t="n">
-        <v>40.0616715058335</v>
+        <v>40.06167150767</v>
       </c>
       <c r="H82" t="n">
-        <v>41.7154878748917</v>
+        <v>41.7154878767258</v>
       </c>
       <c r="I82" t="n">
-        <v>42.9255130658829</v>
+        <v>42.9255130677157</v>
       </c>
       <c r="J82" t="n">
-        <v>42.9459306292119</v>
+        <v>42.9459306310421</v>
       </c>
       <c r="K82" t="n">
-        <v>9.67105298978566</v>
+        <v>9.67105298917526</v>
       </c>
     </row>
     <row r="83">
@@ -19008,31 +19008,31 @@
         <v>93</v>
       </c>
       <c r="C83" t="n">
-        <v>39.1588568345484</v>
+        <v>39.1588568364352</v>
       </c>
       <c r="D83" t="n">
-        <v>35.8991209632926</v>
+        <v>35.8991209651297</v>
       </c>
       <c r="E83" t="n">
-        <v>36.4965715323344</v>
+        <v>36.4965715341699</v>
       </c>
       <c r="F83" t="n">
-        <v>39.9908083382295</v>
+        <v>39.9908083400673</v>
       </c>
       <c r="G83" t="n">
-        <v>40.0616715058335</v>
+        <v>40.06167150767</v>
       </c>
       <c r="H83" t="n">
-        <v>41.7154878748917</v>
+        <v>41.7154878767258</v>
       </c>
       <c r="I83" t="n">
-        <v>42.9255130658829</v>
+        <v>42.9255130677157</v>
       </c>
       <c r="J83" t="n">
-        <v>42.9459306292119</v>
+        <v>42.9459306310421</v>
       </c>
       <c r="K83" t="n">
-        <v>9.67105298978566</v>
+        <v>9.67105298917526</v>
       </c>
     </row>
     <row r="84">
@@ -19043,31 +19043,31 @@
         <v>94</v>
       </c>
       <c r="C84" t="n">
-        <v>54.1679365268959</v>
+        <v>54.1679365274383</v>
       </c>
       <c r="D84" t="n">
-        <v>53.4384325888377</v>
+        <v>53.4384325894523</v>
       </c>
       <c r="E84" t="n">
-        <v>52.9283513541696</v>
+        <v>52.9283513548079</v>
       </c>
       <c r="F84" t="n">
-        <v>52.6450446923412</v>
+        <v>52.6450446929788</v>
       </c>
       <c r="G84" t="n">
-        <v>52.540034843222</v>
+        <v>52.5400348438576</v>
       </c>
       <c r="H84" t="n">
-        <v>51.7596011943853</v>
+        <v>51.7596011950177</v>
       </c>
       <c r="I84" t="n">
-        <v>53.2628472041977</v>
+        <v>53.2628472048313</v>
       </c>
       <c r="J84" t="n">
-        <v>53.2821370617085</v>
+        <v>53.2821370623415</v>
       </c>
       <c r="K84" t="n">
-        <v>-1.63528375268207</v>
+        <v>-1.63528375249835</v>
       </c>
     </row>
     <row r="85">
@@ -19078,31 +19078,31 @@
         <v>95</v>
       </c>
       <c r="C85" t="n">
-        <v>54.2420310397017</v>
+        <v>54.2420310402448</v>
       </c>
       <c r="D85" t="n">
-        <v>53.5088665336516</v>
+        <v>53.5088665342669</v>
       </c>
       <c r="E85" t="n">
-        <v>52.9967998426248</v>
+        <v>52.9967998432639</v>
       </c>
       <c r="F85" t="n">
-        <v>52.7088615245766</v>
+        <v>52.7088615252149</v>
       </c>
       <c r="G85" t="n">
-        <v>52.6020110461251</v>
+        <v>52.6020110467614</v>
       </c>
       <c r="H85" t="n">
-        <v>51.8198963774854</v>
+        <v>51.8198963781185</v>
       </c>
       <c r="I85" t="n">
-        <v>53.3210505785035</v>
+        <v>53.3210505791378</v>
       </c>
       <c r="J85" t="n">
-        <v>53.3389660960166</v>
+        <v>53.3389660966503</v>
       </c>
       <c r="K85" t="n">
-        <v>-1.66488040063271</v>
+        <v>-1.66488040044896</v>
       </c>
     </row>
     <row r="86">
@@ -19113,31 +19113,31 @@
         <v>96</v>
       </c>
       <c r="C86" t="n">
-        <v>54.1679365268959</v>
+        <v>54.1679365274383</v>
       </c>
       <c r="D86" t="n">
-        <v>53.4384325888377</v>
+        <v>53.4384325894523</v>
       </c>
       <c r="E86" t="n">
-        <v>52.9283513541696</v>
+        <v>52.9283513548079</v>
       </c>
       <c r="F86" t="n">
-        <v>52.6450446923412</v>
+        <v>52.6450446929788</v>
       </c>
       <c r="G86" t="n">
-        <v>52.540034843222</v>
+        <v>52.5400348438576</v>
       </c>
       <c r="H86" t="n">
-        <v>51.7596011943853</v>
+        <v>51.7596011950177</v>
       </c>
       <c r="I86" t="n">
-        <v>53.2628472041977</v>
+        <v>53.2628472048313</v>
       </c>
       <c r="J86" t="n">
-        <v>53.2821370617085</v>
+        <v>53.2821370623415</v>
       </c>
       <c r="K86" t="n">
-        <v>-1.63528375268207</v>
+        <v>-1.63528375249835</v>
       </c>
     </row>
     <row r="87">
@@ -19148,31 +19148,31 @@
         <v>97</v>
       </c>
       <c r="C87" t="n">
-        <v>51.7331371410232</v>
+        <v>51.7331371416892</v>
       </c>
       <c r="D87" t="n">
-        <v>49.7382641733209</v>
+        <v>49.7382641738825</v>
       </c>
       <c r="E87" t="n">
-        <v>49.9364911007419</v>
+        <v>49.9364911012822</v>
       </c>
       <c r="F87" t="n">
-        <v>51.2213115152195</v>
+        <v>51.2213115157633</v>
       </c>
       <c r="G87" t="n">
-        <v>50.5305252468669</v>
+        <v>50.5305252474099</v>
       </c>
       <c r="H87" t="n">
-        <v>50.0521732112449</v>
+        <v>50.0521732117871</v>
       </c>
       <c r="I87" t="n">
-        <v>50.4694919125229</v>
+        <v>50.4694919130648</v>
       </c>
       <c r="J87" t="n">
-        <v>50.4463634789785</v>
+        <v>50.4463634795206</v>
       </c>
       <c r="K87" t="n">
-        <v>-2.4873296559165</v>
+        <v>-2.48732965612422</v>
       </c>
     </row>
     <row r="88">
@@ -19183,31 +19183,31 @@
         <v>98</v>
       </c>
       <c r="C88" t="n">
-        <v>48.5537100463609</v>
+        <v>48.5537100474105</v>
       </c>
       <c r="D88" t="n">
-        <v>46.6564076752622</v>
+        <v>46.6564076762732</v>
       </c>
       <c r="E88" t="n">
-        <v>46.8753090767019</v>
+        <v>46.8753090776911</v>
       </c>
       <c r="F88" t="n">
-        <v>48.4993104712612</v>
+        <v>48.4993104722527</v>
       </c>
       <c r="G88" t="n">
-        <v>48.2331484431846</v>
+        <v>48.2331484441752</v>
       </c>
       <c r="H88" t="n">
-        <v>48.3986197946849</v>
+        <v>48.3986197956739</v>
       </c>
       <c r="I88" t="n">
-        <v>49.2021363995296</v>
+        <v>49.2021364005184</v>
       </c>
       <c r="J88" t="n">
-        <v>49.2156958996836</v>
+        <v>49.2156959006718</v>
       </c>
       <c r="K88" t="n">
-        <v>1.3634094133911</v>
+        <v>1.36340941323518</v>
       </c>
     </row>
   </sheetData>
